--- a/clockshift/sumrule_analysis_results.xlsx
+++ b/clockshift/sumrule_analysis_results.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,112 +524,184 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>SR MC</t>
+          <t>SR BS mean</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>e_SR MC</t>
+          <t>e_SR BS</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>FM MC</t>
+          <t>FM BS mean</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>e_FM MC</t>
+          <t>e_FM BS</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>CS MC</t>
+          <t>CS BS mean</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>e_CS MC</t>
+          <t>e_CS BS</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SR BS median</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>SR m conf</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>SR p conf</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>FM BS median</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>FM m conf</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>FM p conf</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>CS BS median</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>CS m conf</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>CS p conf</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-07-03_F_e.dat</t>
+          <t>2024-06-12_K_e.dat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.075</v>
+        <v>0.2</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Blackman</t>
+          <t>KaiserOffset</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1852908125525729</v>
+        <v>0.2396476858413616</v>
       </c>
       <c r="F2" t="n">
-        <v>1.431375262486753</v>
+        <v>1.575928242877254</v>
       </c>
       <c r="G2" t="n">
-        <v>7.725020160298698</v>
+        <v>6.576021117602043</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6509962771211617</v>
+        <v>0.6489189617587682</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03332308962091861</v>
+        <v>0.01125553123615225</v>
       </c>
       <c r="J2" t="n">
-        <v>1.288836268796088</v>
+        <v>1.332875030884715</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1590679917396575</v>
+        <v>0.02318011306368736</v>
       </c>
       <c r="L2" t="n">
-        <v>1.566723288187074</v>
+        <v>1.561723907284984</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08019717220859211</v>
+        <v>0.02708817781044656</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4614749601705497</v>
+        <v>0.2736778983032822</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07773694392764281</v>
+        <v>0.03182356090476033</v>
       </c>
       <c r="P2" t="n">
-        <v>0.252551969898109</v>
+        <v>0.243428283493329</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02836268527205511</v>
+        <v>0.0003077543996983169</v>
       </c>
       <c r="R2" t="n">
-        <v>1.643422845252431</v>
+        <v>1.562248589174939</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1266995617658469</v>
+        <v>0.001412227474274245</v>
       </c>
       <c r="T2" t="n">
-        <v>6.627928477453108</v>
+        <v>6.431967514198058</v>
       </c>
       <c r="U2" t="n">
-        <v>1.16059632137649</v>
+        <v>0.01225650570625107</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.2425145635883333</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.2337015465367808</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2544592759654289</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.567549272082471</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.510451054290147</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1.60680535091716</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>6.480158341401152</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5.942034250176228</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.820338938796564</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-06-12_K_e.dat</t>
+          <t>2024-06-18_G_e.dat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C3" t="n">
         <v>200</v>
@@ -640,65 +712,92 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.2400309826023911</v>
+        <v>0.226357221517783</v>
       </c>
       <c r="F3" t="n">
-        <v>1.645966131237902</v>
+        <v>1.715012172052165</v>
       </c>
       <c r="G3" t="n">
-        <v>6.857306975093413</v>
+        <v>7.576573703072386</v>
       </c>
       <c r="H3" t="n">
-        <v>0.670650726077942</v>
+        <v>0.6786698406025541</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01106776515046919</v>
+        <v>0.0318023220008882</v>
       </c>
       <c r="J3" t="n">
-        <v>1.375946058310826</v>
+        <v>1.39289290005475</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04902244202416516</v>
+        <v>0.06546984106797944</v>
       </c>
       <c r="L3" t="n">
-        <v>1.61402476129725</v>
+        <v>1.633324001427944</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02663628966682724</v>
+        <v>0.07653720957906845</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2736778983032822</v>
+        <v>0.3409020096002797</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03182356090476033</v>
+        <v>0.03601320625300108</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2437053117115882</v>
+        <v>0.2436188168436632</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.007695134787020547</v>
+        <v>0.0008925283959484045</v>
       </c>
       <c r="R3" t="n">
-        <v>1.565450822598883</v>
+        <v>1.856582293362697</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03263528386452002</v>
+        <v>0.002828100821043279</v>
       </c>
       <c r="T3" t="n">
-        <v>6.432204359684635</v>
+        <v>7.733796920810261</v>
       </c>
       <c r="U3" t="n">
-        <v>0.297138783888109</v>
+        <v>0.03307458752601008</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.242671819299814</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2155902590980307</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2731748908074642</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.864263078426091</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.773829653270143</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1.938519092589031</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7.655461625453787</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6.74117083982205</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>8.762050720553271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-06-18_G_e.dat</t>
+          <t>2024-06-20_D_e.dat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C4" t="n">
         <v>200</v>
@@ -709,203 +808,284 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2261725049936855</v>
+        <v>0.285765464687769</v>
       </c>
       <c r="F4" t="n">
-        <v>1.673923755388427</v>
+        <v>1.378594989711414</v>
       </c>
       <c r="G4" t="n">
-        <v>7.401093052558098</v>
+        <v>4.824218319094943</v>
       </c>
       <c r="H4" t="n">
-        <v>0.721352553061528</v>
+        <v>0.576119186821296</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02796513524394455</v>
+        <v>0.007640669797527307</v>
       </c>
       <c r="J4" t="n">
-        <v>1.486318681715246</v>
+        <v>1.129911093590258</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1491469718340117</v>
+        <v>0.01501171086838985</v>
       </c>
       <c r="L4" t="n">
-        <v>1.736046554478768</v>
+        <v>1.386519982504187</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06730242581070021</v>
+        <v>0.01838845432737501</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3409020096002797</v>
+        <v>0.3415494262087299</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03601320625300108</v>
+        <v>0.008561247314093528</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2426641614398168</v>
+        <v>0.2549400524030147</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02245987970455756</v>
+        <v>0.0002010999566757945</v>
       </c>
       <c r="R4" t="n">
-        <v>1.801081234287336</v>
+        <v>1.35073949269815</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09828975406271409</v>
+        <v>0.0006223193143235696</v>
       </c>
       <c r="T4" t="n">
-        <v>7.488602967204746</v>
+        <v>5.301623533077081</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8299678989866394</v>
+        <v>0.0049236935649806</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2551061827194092</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2489329922402798</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2610605697621775</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.350039736630268</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.331621714902058</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1.370197653583743</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>5.292922710767151</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5.156989285259452</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5.452278026734892</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-06-20_D_e.dat</t>
+          <t>2024-06-21_F_e.dat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>KaiserOffset</t>
+          <t>BlackmanOffset</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.2859105686947134</v>
+        <v>0.3984844112175575</v>
       </c>
       <c r="F5" t="n">
-        <v>1.41087198239543</v>
+        <v>3.074101891077429</v>
       </c>
       <c r="G5" t="n">
-        <v>4.934661872894655</v>
+        <v>7.714484693854398</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5916038922381852</v>
+        <v>1.274816987890746</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009121935123942444</v>
+        <v>0.07858508673913954</v>
       </c>
       <c r="J5" t="n">
-        <v>1.162794796923197</v>
+        <v>1.626503200352136</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02673703971533663</v>
+        <v>0.1005417756148018</v>
       </c>
       <c r="L5" t="n">
-        <v>1.423786322481799</v>
+        <v>3.068044370295534</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02195334857399248</v>
+        <v>0.1891271729584655</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3415494262087299</v>
+        <v>0.6556080075646656</v>
       </c>
       <c r="O5" t="n">
-        <v>0.008561247314093528</v>
+        <v>0.09796653299889528</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2543887768519405</v>
+        <v>0.3918888655167571</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.00433931120025964</v>
+        <v>0.0017978276894832</v>
       </c>
       <c r="R5" t="n">
-        <v>1.368413245051007</v>
+        <v>3.309685598487093</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0248381201527391</v>
+        <v>0.009223455430762853</v>
       </c>
       <c r="T5" t="n">
-        <v>5.380742664217686</v>
+        <v>8.683413019536358</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1322064247118131</v>
+        <v>0.05865730127529672</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.393075148799415</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.3323828969611156</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.448725869366139</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.298894653713811</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3.018716929926798</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3.619793143883525</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>8.285786954642619</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.048229565178911</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10.65300227870797</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-06-21_F_e.dat</t>
+          <t>2024-07-03_D_e.dat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C6" t="n">
         <v>400</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BlackmanOffset</t>
+          <t>Blackman</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.3984533262647125</v>
+        <v>0.2749189172129039</v>
       </c>
       <c r="F6" t="n">
-        <v>3.0671873418745</v>
+        <v>1.792579891883406</v>
       </c>
       <c r="G6" t="n">
-        <v>7.697733058543508</v>
+        <v>6.520394849711955</v>
       </c>
       <c r="H6" t="n">
-        <v>1.265135161961768</v>
+        <v>0.7370471888912147</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09129883185792818</v>
+        <v>0.02222022598926358</v>
       </c>
       <c r="J6" t="n">
-        <v>1.60804666240076</v>
+        <v>1.399851977122927</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2113127337099893</v>
+        <v>0.04240960431367085</v>
       </c>
       <c r="L6" t="n">
-        <v>3.044743557851286</v>
+        <v>1.773818124483321</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2197247681486661</v>
+        <v>0.05347641261499812</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6556080075646656</v>
+        <v>0.6181958316131411</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09796653299889528</v>
+        <v>0.1047801134662559</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3933763837651837</v>
+        <v>0.2632589734259065</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04320098377623695</v>
+        <v>0.0007877801279325311</v>
       </c>
       <c r="R6" t="n">
-        <v>3.248727309308798</v>
+        <v>1.980339200087796</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2220770877966626</v>
+        <v>0.002917757632377564</v>
       </c>
       <c r="T6" t="n">
-        <v>8.366592376064258</v>
+        <v>7.61086431229224</v>
       </c>
       <c r="U6" t="n">
-        <v>1.146689983091804</v>
+        <v>0.03108611203642432</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.264610071947694</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.2392238629647885</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.287287219283234</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.971142140460099</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.895328128279017</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2.086822766243151</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7.455376137013354</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.688691567206321</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8.649235195908281</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-07-03_D_e.dat</t>
+          <t>2024-07-03_F_e.dat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="C7" t="n">
         <v>400</v>
@@ -916,65 +1096,92 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.2746840908069692</v>
+        <v>0.1855879060092056</v>
       </c>
       <c r="F7" t="n">
-        <v>1.750665509049178</v>
+        <v>1.484403748909653</v>
       </c>
       <c r="G7" t="n">
-        <v>6.37337788259254</v>
+        <v>7.998386214002671</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7163344628376367</v>
+        <v>0.6690111263111501</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02700443456423731</v>
+        <v>0.02965512785439826</v>
       </c>
       <c r="J7" t="n">
-        <v>1.37020392034613</v>
+        <v>1.303323068731554</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1057224774188156</v>
+        <v>0.05830446811178779</v>
       </c>
       <c r="L7" t="n">
-        <v>1.723969743762182</v>
+        <v>1.610078810716245</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06499035094825928</v>
+        <v>0.071369654568706</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6181958316131411</v>
+        <v>0.4614749601705497</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1047801134662559</v>
+        <v>0.07773694392764281</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2613970271872678</v>
+        <v>0.2566559061070938</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01759775490549793</v>
+        <v>0.001547948503468249</v>
       </c>
       <c r="R7" t="n">
-        <v>1.925700716431442</v>
+        <v>1.714294062573884</v>
       </c>
       <c r="S7" t="n">
-        <v>0.06901071383531537</v>
+        <v>0.006835980590970452</v>
       </c>
       <c r="T7" t="n">
-        <v>7.408811788872007</v>
+        <v>7.094372452946747</v>
       </c>
       <c r="U7" t="n">
-        <v>0.667540049199164</v>
+        <v>0.07762474960659141</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.2559071575737699</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.2116624973272492</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.3020216778148188</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.741645509646387</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.515812150914217</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.903656683143408</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>6.913025061708433</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>5.103037982526264</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8.799339723040633</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-07-03_F_e.dat</t>
+          <t>2024-07-04_K_e.dat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.075</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -985,55 +1192,274 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1852908125525729</v>
+        <v>0.1901048124751906</v>
       </c>
       <c r="F8" t="n">
-        <v>1.431375262486753</v>
+        <v>1.592810930364353</v>
       </c>
       <c r="G8" t="n">
-        <v>7.725020160298698</v>
+        <v>8.378593417103634</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6509962771211617</v>
+        <v>0.8261470512480275</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03332308962091861</v>
+        <v>0.1094047790547325</v>
       </c>
       <c r="J8" t="n">
-        <v>1.283025691051912</v>
+        <v>1.270661376398574</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1631489261302454</v>
+        <v>0.1693756257093532</v>
       </c>
       <c r="L8" t="n">
-        <v>1.566723288187074</v>
+        <v>1.988250732218035</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08019717220859211</v>
+        <v>0.2632995321294426</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4614749601705497</v>
+        <v>0.8253337864281901</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07773694392764281</v>
+        <v>0.1766716338185285</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2536957294235591</v>
+        <v>0.3250854502202506</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02953060591076183</v>
+        <v>0.004941345434699222</v>
       </c>
       <c r="R8" t="n">
-        <v>1.648641630886825</v>
+        <v>1.77264434139005</v>
       </c>
       <c r="S8" t="n">
-        <v>0.127847760664014</v>
+        <v>0.02502539840094644</v>
       </c>
       <c r="T8" t="n">
-        <v>6.625681115507195</v>
+        <v>13.0578667893758</v>
       </c>
       <c r="U8" t="n">
-        <v>1.183554555601106</v>
+        <v>0.6994711102528653</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.3548313152272776</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.09770982928904258</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.4657475748375997</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.599316559070455</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.115274848840932</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2.879469636738113</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>4.668122205822129</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>2.457177816367022</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>31.89255465839218</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-07-04_L_e.dat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C9" t="n">
+        <v>200</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3881564094049755</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.947137299759186</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.016372917154841</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8359564261489355</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.05248544245091997</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.058147757809466</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.06660377984219204</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.011858511002536</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1263143398335507</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.5816662461381109</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.07989215673993962</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.3950093075278535</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.001765243462674135</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.921056635200053</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.008517846763479544</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5.031867375464956</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.04150493123951832</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.4043300840091656</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.3288948770711169</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.4417414853077825</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.900957585322261</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.665412825694478</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2.208346426146586</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>4.612512587626303</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>3.87814982857536</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.65689122700609</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-07-04_M_e.dat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>200</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Blackman</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2631280074210132</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.888757362080606</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.178093204873221</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8036242694706087</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.03806166402350823</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.366520851926745</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.06662610056463705</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.934046172275721</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.09160128484372869</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4209957151150028</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.09590543871204187</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.2940402513205443</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.003403008887811331</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.062127942031117</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.01582098610419101</v>
+      </c>
+      <c r="T10" t="n">
+        <v>9.163410484350349</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.1989464923194593</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.3311779909573386</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.1501604512513491</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.3705880331442477</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.899298925162814</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.698115709380972</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2.721915321185053</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>5.744928375193068</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>4.611985493731272</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>18.13929269426946</v>
       </c>
     </row>
   </sheetData>

--- a/clockshift/sumrule_analysis_results.xlsx
+++ b/clockshift/sumrule_analysis_results.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD10"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,132 +469,157 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>SR</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FM</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CS</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>e_C</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>C/SR</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>e_C/SR</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>CS pred</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>e_CS pred</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Peak Scaled Transfer</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>e_Peak Scaled Transfer</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>SR BS mean</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>e_SR BS</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>FM BS mean</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>e_FM BS</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>CS BS mean</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>e_CS BS</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>SR BS median</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>SR m conf</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>SR p conf</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>FM BS median</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>FM m conf</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>FM p conf</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>CS BS median</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>CS m conf</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CS p conf</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>SR extrapolation</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>FM extrapolation</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>e_SR extrapolation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>e_FM extrapolation</t>
         </is>
       </c>
     </row>
@@ -616,82 +641,97 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.2396476858413616</v>
+        <v>0.016</v>
       </c>
       <c r="F2" t="n">
-        <v>1.575928242877254</v>
+        <v>0.2388045350580862</v>
       </c>
       <c r="G2" t="n">
-        <v>6.576021117602043</v>
+        <v>1.138479897565054</v>
       </c>
       <c r="H2" t="n">
+        <v>4.767413220557696</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.6489189617587682</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.01125553123615225</v>
       </c>
-      <c r="J2" t="n">
-        <v>1.332875030884715</v>
-      </c>
       <c r="K2" t="n">
-        <v>0.02318011306368736</v>
+        <v>1.344198148916556</v>
       </c>
       <c r="L2" t="n">
+        <v>0.05867565500441541</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.561723907284984</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.02708817781044656</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.2736778983032822</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.03182356090476033</v>
       </c>
-      <c r="P2" t="n">
-        <v>0.243428283493329</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0.0003077543996983169</v>
+        <v>0.2413777173706891</v>
       </c>
       <c r="R2" t="n">
-        <v>1.562248589174939</v>
+        <v>0.009668866699866165</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001412227474274245</v>
+        <v>1.12076107156157</v>
       </c>
       <c r="T2" t="n">
-        <v>6.431967514198058</v>
+        <v>0.04354187832722337</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01225650570625107</v>
+        <v>4.655555109720652</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2425145635883333</v>
+        <v>0.03344927472967284</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2337015465367808</v>
+        <v>0.2388909054544618</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2544592759654289</v>
+        <v>0.2326389837262302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.567549272082471</v>
+        <v>0.2539968205155874</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.510451054290147</v>
+        <v>1.128783965854855</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.60680535091716</v>
+        <v>1.06439213988648</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.480158341401152</v>
+        <v>1.162454814944441</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.942034250176228</v>
+        <v>4.753545329360357</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.820338938796564</v>
+        <v>4.189460292286996</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>4.953578942951227</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.006919501603121923</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.9746254958578338</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0002267077617906699</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.01701140872191574</v>
       </c>
     </row>
     <row r="3">
@@ -712,82 +752,97 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.226357221517783</v>
+        <v>0.016</v>
       </c>
       <c r="F3" t="n">
-        <v>1.715012172052165</v>
+        <v>0.2254634988249357</v>
       </c>
       <c r="G3" t="n">
-        <v>7.576573703072386</v>
+        <v>1.2314170931488</v>
       </c>
       <c r="H3" t="n">
+        <v>5.461713756624309</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.6786698406025541</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.0318023220008882</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.39289290005475</v>
-      </c>
       <c r="K3" t="n">
-        <v>0.06546984106797944</v>
+        <v>1.392309838437279</v>
       </c>
       <c r="L3" t="n">
+        <v>0.1735566589081418</v>
+      </c>
+      <c r="M3" t="n">
         <v>1.633324001427944</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.07653720957906845</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.3409020096002797</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.03601320625300108</v>
       </c>
-      <c r="P3" t="n">
-        <v>0.2436188168436632</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0.0008925283959484045</v>
+        <v>0.2437208378001156</v>
       </c>
       <c r="R3" t="n">
-        <v>1.856582293362697</v>
+        <v>0.02815236370418522</v>
       </c>
       <c r="S3" t="n">
-        <v>0.002828100821043279</v>
+        <v>1.353083125477133</v>
       </c>
       <c r="T3" t="n">
-        <v>7.733796920810261</v>
+        <v>0.07041772970443397</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03307458752601008</v>
+        <v>5.633944164123744</v>
       </c>
       <c r="V3" t="n">
-        <v>0.242671819299814</v>
+        <v>0.07797873318350997</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2155902590980307</v>
+        <v>0.2402190831944724</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2731748908074642</v>
+        <v>0.2129685796590809</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.864263078426091</v>
+        <v>0.2713259497734076</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.773829653270143</v>
+        <v>1.35607540824109</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.938519092589031</v>
+        <v>1.284815271479351</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.655461625453787</v>
+        <v>1.422547451840739</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.74117083982205</v>
+        <v>5.576930850061396</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.762050720553271</v>
+        <v>4.949153806396567</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>6.401967040070535</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.006116178424889337</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1.062188060260683</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.0002548930125061055</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.03997603929725076</v>
       </c>
     </row>
     <row r="4">
@@ -808,82 +863,97 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.285765464687769</v>
+        <v>0.016</v>
       </c>
       <c r="F4" t="n">
-        <v>1.378594989711414</v>
+        <v>0.2850430727364528</v>
       </c>
       <c r="G4" t="n">
-        <v>4.824218319094943</v>
+        <v>0.9860658125376409</v>
       </c>
       <c r="H4" t="n">
+        <v>3.45935722300238</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.576119186821296</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.007640669797527307</v>
       </c>
-      <c r="J4" t="n">
-        <v>1.129911093590258</v>
-      </c>
       <c r="K4" t="n">
-        <v>0.01501171086838985</v>
+        <v>1.135703317821381</v>
       </c>
       <c r="L4" t="n">
+        <v>0.03068992361823477</v>
+      </c>
+      <c r="M4" t="n">
         <v>1.386519982504187</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.01838845432737501</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>0.3415494262087299</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>0.008561247314093528</v>
       </c>
-      <c r="P4" t="n">
-        <v>0.2549400524030147</v>
-      </c>
       <c r="Q4" t="n">
-        <v>0.0002010999566757945</v>
+        <v>0.2536398273126759</v>
       </c>
       <c r="R4" t="n">
-        <v>1.35073949269815</v>
+        <v>0.005971830151444834</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0006223193143235696</v>
+        <v>0.9621294245682023</v>
       </c>
       <c r="T4" t="n">
-        <v>5.301623533077081</v>
+        <v>0.01426198134764518</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0049236935649806</v>
+        <v>3.795741092186349</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2551061827194092</v>
+        <v>0.01182771472975062</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2489329922402798</v>
+        <v>0.2536812680014072</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2610605697621775</v>
+        <v>0.2483791251300254</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.350039736630268</v>
+        <v>0.2597967349253841</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.331621714902058</v>
+        <v>0.9616423272809573</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.370197653583743</v>
+        <v>0.9475505309847599</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.292922710767151</v>
+        <v>0.9774257725197641</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.156989285259452</v>
+        <v>3.789432325481092</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.452278026734892</v>
+        <v>3.688071677434342</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>3.905045814353005</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.004735766832896436</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.8240911432864236</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.517462446515348e-05</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.01188837647452598</v>
       </c>
     </row>
     <row r="5">
@@ -904,82 +974,97 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.3984844112175575</v>
+        <v>0.016</v>
       </c>
       <c r="F5" t="n">
-        <v>3.074101891077429</v>
+        <v>0.3968788887078489</v>
       </c>
       <c r="G5" t="n">
-        <v>7.714484693854398</v>
+        <v>2.20333556800733</v>
       </c>
       <c r="H5" t="n">
+        <v>5.551657270511186</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.274816987890746</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.07858508673913954</v>
       </c>
-      <c r="J5" t="n">
-        <v>1.626503200352136</v>
-      </c>
       <c r="K5" t="n">
-        <v>0.1005417756148018</v>
+        <v>1.624455740716396</v>
       </c>
       <c r="L5" t="n">
+        <v>0.2570852418757694</v>
+      </c>
+      <c r="M5" t="n">
         <v>3.068044370295534</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.1891271729584655</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>0.6556080075646656</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>0.09796653299889528</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.3918888655167571</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0.0017978276894832</v>
+        <v>0.3923828011862433</v>
       </c>
       <c r="R5" t="n">
-        <v>3.309685598487093</v>
+        <v>0.05719374721579943</v>
       </c>
       <c r="S5" t="n">
-        <v>0.009223455430762853</v>
+        <v>2.357573746856725</v>
       </c>
       <c r="T5" t="n">
-        <v>8.683413019536358</v>
+        <v>0.246989722292417</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05865730127529672</v>
+        <v>6.184265167403131</v>
       </c>
       <c r="V5" t="n">
-        <v>0.393075148799415</v>
+        <v>0.1417438534063145</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3323828969611156</v>
+        <v>0.3951493530335471</v>
       </c>
       <c r="X5" t="n">
-        <v>0.448725869366139</v>
+        <v>0.3286728098992873</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.298894653713811</v>
+        <v>0.4536548520410221</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.018716929926798</v>
+        <v>2.307709047957201</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.619793143883525</v>
+        <v>2.134569004409063</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.285786954642619</v>
+        <v>2.60415620407787</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.048229565178911</v>
+        <v>5.743805425005515</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.65300227870797</v>
+        <v>5.002078123728793</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>7.473590321060869</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.01114710438799668</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1.938479859296718</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0009129959684955629</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.1567047660888237</v>
       </c>
     </row>
     <row r="6">
@@ -1000,82 +1085,97 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2749189172129039</v>
+        <v>0.017</v>
       </c>
       <c r="F6" t="n">
-        <v>1.792579891883406</v>
+        <v>0.2738760429364235</v>
       </c>
       <c r="G6" t="n">
-        <v>6.520394849711955</v>
+        <v>1.286608409903212</v>
       </c>
       <c r="H6" t="n">
+        <v>4.697776395878043</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.7370471888912147</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.02222022598926358</v>
       </c>
-      <c r="J6" t="n">
-        <v>1.399851977122927</v>
-      </c>
       <c r="K6" t="n">
-        <v>0.04240960431367085</v>
+        <v>1.420016919810063</v>
       </c>
       <c r="L6" t="n">
+        <v>0.1379150307378671</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.773818124483321</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.05347641261499812</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>0.6181958316131411</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>0.1047801134662559</v>
       </c>
-      <c r="P6" t="n">
-        <v>0.2632589734259065</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0.0007877801279325311</v>
+        <v>0.259520565779526</v>
       </c>
       <c r="R6" t="n">
-        <v>1.980339200087796</v>
+        <v>0.02396012074843355</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002917757632377564</v>
+        <v>1.469431964359253</v>
       </c>
       <c r="T6" t="n">
-        <v>7.61086431229224</v>
+        <v>0.08081847583910141</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03108611203642432</v>
+        <v>5.729771614782805</v>
       </c>
       <c r="V6" t="n">
-        <v>0.264610071947694</v>
+        <v>0.07786814810679379</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2392238629647885</v>
+        <v>0.2573100405379732</v>
       </c>
       <c r="X6" t="n">
-        <v>0.287287219283234</v>
+        <v>0.2339205261312427</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.971142140460099</v>
+        <v>0.2873209419566916</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.895328128279017</v>
+        <v>1.460662303325634</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.086822766243151</v>
+        <v>1.38584296191074</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.455376137013354</v>
+        <v>1.569297914609102</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.688691567206321</v>
+        <v>5.642456287831479</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.649235195908281</v>
+        <v>4.870266047697895</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6.609585509539813</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.008134194940711811</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.122219503682783</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.0001906298685139812</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.01764318915886524</v>
       </c>
     </row>
     <row r="7">
@@ -1096,370 +1196,319 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1855879060092056</v>
+        <v>0.017</v>
       </c>
       <c r="F7" t="n">
-        <v>1.484403748909653</v>
+        <v>0.1847369721629153</v>
       </c>
       <c r="G7" t="n">
-        <v>7.998386214002671</v>
+        <v>1.067485217868904</v>
       </c>
       <c r="H7" t="n">
+        <v>5.7784059431672</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.6690111263111501</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.02965512785439826</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.303323068731554</v>
-      </c>
       <c r="K7" t="n">
-        <v>0.05830446811178779</v>
+        <v>1.289514771001809</v>
       </c>
       <c r="L7" t="n">
+        <v>0.237350931915845</v>
+      </c>
+      <c r="M7" t="n">
         <v>1.610078810716245</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>0.071369654568706</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>0.4614749601705497</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>0.07773694392764281</v>
       </c>
-      <c r="P7" t="n">
-        <v>0.2566559061070938</v>
-      </c>
       <c r="Q7" t="n">
-        <v>0.001547948503468249</v>
+        <v>0.259404212094214</v>
       </c>
       <c r="R7" t="n">
-        <v>1.714294062573884</v>
+        <v>0.04634126060608454</v>
       </c>
       <c r="S7" t="n">
-        <v>0.006835980590970452</v>
+        <v>1.220346854345371</v>
       </c>
       <c r="T7" t="n">
-        <v>7.094372452946747</v>
+        <v>0.1997157096432336</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07762474960659141</v>
+        <v>4.97566855030912</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2559071575737699</v>
+        <v>0.1677292358728358</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2116624973272492</v>
+        <v>0.2573848694912036</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3020216778148188</v>
+        <v>0.2171317701270569</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.741645509646387</v>
+        <v>0.3053340796113416</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.515812150914217</v>
+        <v>1.251181079302935</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.903656683143408</v>
+        <v>1.032066107209948</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.913025061708433</v>
+        <v>1.391958779451485</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.103037982526264</v>
+        <v>4.97977315143013</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.799339723040633</v>
+        <v>3.445421517994154</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>6.444867692849534</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.007508647088037367</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1.034991083540587</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.0004440568164500921</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.05687824668940357</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-07-04_K_e.dat</t>
+          <t>2024-07-04_L_e.dat</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Blackman</t>
+          <t>square</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1901048124751906</v>
+        <v>0.017</v>
       </c>
       <c r="F8" t="n">
-        <v>1.592810930364353</v>
+        <v>0.3870282952264377</v>
       </c>
       <c r="G8" t="n">
-        <v>8.378593417103634</v>
+        <v>1.394384246702541</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8261470512480275</v>
+        <v>3.602796653114811</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1094047790547325</v>
+        <v>0.8359564261489355</v>
       </c>
       <c r="J8" t="n">
-        <v>1.270661376398574</v>
+        <v>0.05248544245091997</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1693756257093532</v>
+        <v>1.057256895620767</v>
       </c>
       <c r="L8" t="n">
-        <v>1.988250732218035</v>
+        <v>0.169217682010268</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2632995321294426</v>
+        <v>2.011858511002536</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8253337864281901</v>
+        <v>0.1263143398335507</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1766716338185285</v>
+        <v>0.5816662461381109</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3250854502202506</v>
+        <v>0.07989215673993962</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.004941345434699222</v>
+        <v>0.3953421489193052</v>
       </c>
       <c r="R8" t="n">
-        <v>1.77264434139005</v>
+        <v>0.05820422501905163</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02502539840094644</v>
+        <v>1.298825131206024</v>
       </c>
       <c r="T8" t="n">
-        <v>13.0578667893758</v>
+        <v>0.2457288920334258</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6994711102528653</v>
+        <v>3.43635333139241</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3548313152272776</v>
+        <v>0.1111662230036276</v>
       </c>
       <c r="W8" t="n">
-        <v>0.09770982928904258</v>
+        <v>0.4068694743881733</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4657475748375997</v>
+        <v>0.3275990748853994</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.599316559070455</v>
+        <v>0.4365803577358339</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.115274848840932</v>
+        <v>1.269175143287388</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.879469636738113</v>
+        <v>1.104845787026865</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.668122205822129</v>
+        <v>1.558948732281812</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.457177816367022</v>
+        <v>3.070500891529368</v>
       </c>
       <c r="AD8" t="n">
-        <v>31.89255465839218</v>
+        <v>2.653585002736688</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>4.983449786845105</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.009559815669908467</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1.317700053986698</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.0007491992295883839</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.09898692509430279</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-07-04_L_e.dat</t>
+          <t>2024-07-05_D_e.dat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C9" t="n">
         <v>200</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>square</t>
+          <t>Blackman</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3881564094049755</v>
+        <v>0.0129</v>
       </c>
       <c r="F9" t="n">
-        <v>1.947137299759186</v>
+        <v>0.4570872041986777</v>
       </c>
       <c r="G9" t="n">
-        <v>5.016372917154841</v>
+        <v>3.762044820987883</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8359564261489355</v>
+        <v>8.230475030652293</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05248544245091997</v>
+        <v>1.872833194191128</v>
       </c>
       <c r="J9" t="n">
-        <v>1.058147757809466</v>
+        <v>0.08896037622538611</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06660377984219204</v>
+        <v>1.248963272119006</v>
       </c>
       <c r="L9" t="n">
-        <v>2.011858511002536</v>
+        <v>0.1799061666558945</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1263143398335507</v>
+        <v>4.507262918928978</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5816662461381109</v>
+        <v>0.2140969127727527</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07989215673993962</v>
+        <v>1.515080508621391</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3950093075278535</v>
+        <v>1.050813462192785</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001765243462674135</v>
+        <v>0.7497551112986924</v>
       </c>
       <c r="R9" t="n">
-        <v>1.921056635200053</v>
+        <v>0.1019570442361502</v>
       </c>
       <c r="S9" t="n">
-        <v>0.008517846763479544</v>
+        <v>3.144371526386101</v>
       </c>
       <c r="T9" t="n">
-        <v>5.031867375464956</v>
+        <v>0.5647393914583316</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04150493123951832</v>
+        <v>4.313240852883101</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4043300840091656</v>
+        <v>0.09827553954256885</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3288948770711169</v>
+        <v>0.7330673531798678</v>
       </c>
       <c r="X9" t="n">
-        <v>0.4417414853077825</v>
+        <v>0.6767726474016409</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.900957585322261</v>
+        <v>0.8199529017371634</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.665412825694478</v>
+        <v>3.202187581601019</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.208346426146586</v>
+        <v>2.970864720359929</v>
       </c>
       <c r="AB9" t="n">
-        <v>4.612512587626303</v>
+        <v>3.509303413698933</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.87814982857536</v>
+        <v>4.356233334540836</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.65689122700609</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2024-07-04_M_e.dat</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>200</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Blackman</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>0.2631280074210132</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.888757362080606</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7.178093204873221</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.8036242694706087</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.03806166402350823</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.366520851926745</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.06662610056463705</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.934046172275721</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.09160128484372869</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.4209957151150028</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.09590543871204187</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.2940402513205443</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.003403008887811331</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.062127942031117</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.01582098610419101</v>
-      </c>
-      <c r="T10" t="n">
-        <v>9.163410484350349</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.1989464923194593</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.3311779909573386</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.1501604512513491</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.3705880331442477</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.899298925162814</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.698115709380972</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>2.721915321185053</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>5.744928375193068</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>4.611985493731272</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>18.13929269426946</v>
+        <v>3.798105811484043</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>4.982550935867079</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.01640915426216189</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>2.947914121413941</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.001178111151159224</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.1506459188302166</v>
       </c>
     </row>
   </sheetData>

--- a/clockshift/sumrule_analysis_results.xlsx
+++ b/clockshift/sumrule_analysis_results.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinxie/Documents/GitHub/analysis/clockshift/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Analysis Scripts\analysis\clockshift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3AFB09-A3CA-2541-9565-E576829DFDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Run</t>
   </si>
@@ -28,7 +27,7 @@
     <t>Gain</t>
   </si>
   <si>
-    <t>Pulse Param</t>
+    <t>Transfer Scale</t>
   </si>
   <si>
     <t>Pulse Time (us)</t>
@@ -58,13 +57,13 @@
     <t>C/SR</t>
   </si>
   <si>
-    <t>e_C/SR</t>
-  </si>
-  <si>
     <t>CS pred</t>
   </si>
   <si>
-    <t>e_CS pred</t>
+    <t>lower_CS pred</t>
+  </si>
+  <si>
+    <t>upper_CS pred</t>
   </si>
   <si>
     <t>Peak Scaled Transfer</t>
@@ -73,6 +72,12 @@
     <t>e_Peak Scaled Transfer</t>
   </si>
   <si>
+    <t>lower_C/SR</t>
+  </si>
+  <si>
+    <t>upper_C/SR</t>
+  </si>
+  <si>
     <t>SR BS mean</t>
   </si>
   <si>
@@ -130,43 +135,43 @@
     <t>e_FM extrapolation</t>
   </si>
   <si>
+    <t>Blackman</t>
+  </si>
+  <si>
+    <t>2024-06-12_K_e.dat</t>
+  </si>
+  <si>
+    <t>KaiserOffset</t>
+  </si>
+  <si>
+    <t>2024-06-18_G_e.dat</t>
+  </si>
+  <si>
+    <t>2024-06-20_D_e.dat</t>
+  </si>
+  <si>
+    <t>2024-07-03_D_e.dat</t>
+  </si>
+  <si>
     <t>2024-07-03_F_e.dat</t>
   </si>
   <si>
-    <t>Blackman</t>
-  </si>
-  <si>
-    <t>2024-06-12_K_e.dat</t>
-  </si>
-  <si>
-    <t>KaiserOffset</t>
-  </si>
-  <si>
-    <t>2024-06-18_G_e.dat</t>
-  </si>
-  <si>
-    <t>2024-06-20_D_e.dat</t>
-  </si>
-  <si>
-    <t>2024-06-21_F_e.dat</t>
-  </si>
-  <si>
-    <t>BlackmanOffset</t>
-  </si>
-  <si>
-    <t>2024-07-03_D_e.dat</t>
-  </si>
-  <si>
-    <t>2024-07-04_L_e.dat</t>
-  </si>
-  <si>
-    <t>square</t>
+    <t>2024-07-17_H_e.dat</t>
+  </si>
+  <si>
+    <t>2024-07-18_C_e.dat</t>
+  </si>
+  <si>
+    <t>2024-07-18_D_e.dat</t>
+  </si>
+  <si>
+    <t>2024-07-18_E_e.dat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,8 +183,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -523,19 +530,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,560 +648,596 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.19484897886944691</v>
+        <v>0.90882213288603608</v>
       </c>
       <c r="D2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>1.7000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G2">
-        <v>0.30159283618223792</v>
+        <v>0.23567540012778959</v>
       </c>
       <c r="H2">
-        <v>1.1294591434571839</v>
+        <v>1.158999158757531</v>
       </c>
       <c r="I2">
-        <v>3.7449800126376558</v>
+        <v>4.9177774096451747</v>
       </c>
       <c r="J2">
-        <v>0.66901112631115012</v>
+        <v>0.64891896175876818</v>
       </c>
       <c r="K2">
-        <v>2.965512785439826E-2</v>
+        <v>1.125553123615225E-2</v>
       </c>
       <c r="L2">
-        <v>1.2877547404290199</v>
+        <v>1.3651414946358049</v>
       </c>
       <c r="M2">
-        <v>0.19907228227328461</v>
+        <v>1.5977710264113449</v>
       </c>
       <c r="N2">
-        <v>1.6100788107162449</v>
+        <v>4.1905153273352704</v>
       </c>
       <c r="O2">
-        <v>7.1369654568706004E-2</v>
+        <v>4.9068882926961823</v>
       </c>
       <c r="P2">
-        <v>0.48657915584404082</v>
+        <v>0.27367789830328221</v>
       </c>
       <c r="Q2">
-        <v>0.2275530759597654</v>
+        <v>3.182356090476033E-2</v>
       </c>
       <c r="R2">
-        <v>0.25975875114552749</v>
+        <v>-6.2624720332954631E-2</v>
       </c>
       <c r="S2">
-        <v>3.8469550596733508E-2</v>
+        <v>-5.9099398750130483E-2</v>
       </c>
       <c r="T2">
-        <v>1.257426459378038</v>
+        <v>0.24354607428245709</v>
       </c>
       <c r="U2">
-        <v>0.16685742365067549</v>
+        <v>9.696320994482234E-3</v>
       </c>
       <c r="V2">
-        <v>5.047895661177261</v>
+        <v>1.1116000685098479</v>
       </c>
       <c r="W2">
-        <v>0.15637029796735799</v>
+        <v>4.2305891620640683E-2</v>
       </c>
       <c r="X2">
-        <v>0.25387536976481201</v>
+        <v>4.575849068089191</v>
       </c>
       <c r="Y2">
-        <v>0.2244387121344629</v>
+        <v>1.013445923562273E-2</v>
       </c>
       <c r="Z2">
-        <v>0.30160923371187859</v>
+        <v>0.24297456946628929</v>
       </c>
       <c r="AA2">
-        <v>1.2884861540307391</v>
+        <v>9.2457976433859002E-3</v>
       </c>
       <c r="AB2">
-        <v>1.055066630230054</v>
+        <v>1.102558676022561E-2</v>
       </c>
       <c r="AC2">
-        <v>1.427699588680776</v>
+        <v>1.122378162667196</v>
       </c>
       <c r="AD2">
-        <v>5.0984980319524187</v>
+        <v>6.3858631933158216E-2</v>
       </c>
       <c r="AE2">
-        <v>3.5147265827487111</v>
+        <v>3.1981445316191293E-2</v>
       </c>
       <c r="AF2">
-        <v>6.2918118846635842</v>
+        <v>4.6460560086648597</v>
       </c>
       <c r="AG2">
-        <v>7.492274538446567E-3</v>
+        <v>0.45554068132959008</v>
       </c>
       <c r="AH2">
-        <v>1.0302125543896179</v>
+        <v>0.26083228403132258</v>
       </c>
       <c r="AI2">
-        <v>3.8788638307141681E-4</v>
+        <v>6.916466736112385E-3</v>
       </c>
       <c r="AJ2">
-        <v>4.8161861862791762E-2</v>
+        <v>0.97420981896525138</v>
+      </c>
+      <c r="AK2">
+        <v>1.8664039226050729E-4</v>
+      </c>
+      <c r="AL2">
+        <v>1.7036891004852499E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
-        <v>0.90882213288603608</v>
+        <v>0.23273033277429361</v>
       </c>
       <c r="D3">
         <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3">
         <v>1.6E-2</v>
       </c>
       <c r="G3">
-        <v>0.23569190758272621</v>
+        <v>0.25606193235340652</v>
       </c>
       <c r="H3">
-        <v>1.1622808647058289</v>
+        <v>1.2919328522934459</v>
       </c>
       <c r="I3">
-        <v>4.9313566877465949</v>
+        <v>5.0453921065876033</v>
       </c>
       <c r="J3">
-        <v>0.64891896175876818</v>
+        <v>0.67866984060255409</v>
       </c>
       <c r="K3">
-        <v>1.125553123615225E-2</v>
+        <v>3.18023220008882E-2</v>
       </c>
       <c r="L3">
-        <v>1.336746485687121</v>
+        <v>1.552517178630844</v>
       </c>
       <c r="M3">
-        <v>5.7459997424191403E-2</v>
+        <v>1.8156642806550409</v>
       </c>
       <c r="N3">
-        <v>1.561723907284984</v>
+        <v>4.8675991363953814</v>
       </c>
       <c r="O3">
-        <v>2.7088177810446559E-2</v>
+        <v>6.4386040556799884</v>
       </c>
       <c r="P3">
-        <v>0.27367789830328221</v>
+        <v>0.34090200960027972</v>
       </c>
       <c r="Q3">
-        <v>3.1823560904760323E-2</v>
+        <v>3.6013206253001077E-2</v>
       </c>
       <c r="R3">
-        <v>0.24272327202910421</v>
+        <v>-0.17954806267467679</v>
       </c>
       <c r="S3">
-        <v>9.5463290155396348E-3</v>
+        <v>-0.20938387376391929</v>
       </c>
       <c r="T3">
-        <v>1.113032255639453</v>
+        <v>0.2429339272419348</v>
       </c>
       <c r="U3">
-        <v>4.0956366076643422E-2</v>
+        <v>2.778759131374189E-2</v>
       </c>
       <c r="V3">
-        <v>4.5967796648300316</v>
+        <v>1.3492872581407189</v>
       </c>
       <c r="W3">
-        <v>3.1523166116632577E-2</v>
+        <v>7.3481008848355178E-2</v>
       </c>
       <c r="X3">
-        <v>0.2430313241519024</v>
+        <v>5.6371943599527254</v>
       </c>
       <c r="Y3">
-        <v>0.23332162111255811</v>
+        <v>2.479630094962209E-2</v>
       </c>
       <c r="Z3">
-        <v>0.2516182077780561</v>
+        <v>0.2426901701809793</v>
       </c>
       <c r="AA3">
-        <v>1.1200448526692539</v>
+        <v>2.8205630764999299E-2</v>
       </c>
       <c r="AB3">
-        <v>1.0590593827465411</v>
+        <v>2.9058499955154141E-2</v>
       </c>
       <c r="AC3">
-        <v>1.1553543888721141</v>
+        <v>1.353843067623282</v>
       </c>
       <c r="AD3">
-        <v>4.6434041932523371</v>
+        <v>7.4072240622728991E-2</v>
       </c>
       <c r="AE3">
-        <v>4.2308667622380902</v>
+        <v>6.8362895289295178E-2</v>
       </c>
       <c r="AF3">
-        <v>4.9176003774616284</v>
+        <v>5.5831085531582154</v>
       </c>
       <c r="AG3">
-        <v>6.9093447157080913E-3</v>
+        <v>0.71550941676283486</v>
       </c>
       <c r="AH3">
-        <v>0.97522833020857735</v>
+        <v>0.85549550252177298</v>
       </c>
       <c r="AI3">
-        <v>1.5718724068599239E-4</v>
+        <v>6.1308255604242499E-3</v>
       </c>
       <c r="AJ3">
-        <v>1.6636667845701909E-2</v>
+        <v>1.065077949859079</v>
+      </c>
+      <c r="AK3">
+        <v>2.6165883876611983E-4</v>
+      </c>
+      <c r="AL3">
+        <v>4.0300132917553723E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C4">
-        <v>0.23273033277429361</v>
+        <v>2.0289740574578108</v>
       </c>
       <c r="D4">
         <v>200</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4">
         <v>1.6E-2</v>
       </c>
       <c r="G4">
-        <v>0.2338587664306451</v>
+        <v>0.25155824262578858</v>
       </c>
       <c r="H4">
-        <v>1.2959288805762641</v>
+        <v>1.0389696205128769</v>
       </c>
       <c r="I4">
-        <v>5.5415022509348368</v>
+        <v>4.1301354694961052</v>
       </c>
       <c r="J4">
-        <v>0.67866984060255409</v>
+        <v>0.57611918682129604</v>
       </c>
       <c r="K4">
-        <v>3.18023220008882E-2</v>
+        <v>7.6406697975273073E-3</v>
       </c>
       <c r="L4">
-        <v>1.4178174612926751</v>
+        <v>1.1449925677591051</v>
       </c>
       <c r="M4">
-        <v>0.1769304999737055</v>
+        <v>1.398235259557735</v>
       </c>
       <c r="N4">
-        <v>1.633324001427944</v>
+        <v>3.6756176049209941</v>
       </c>
       <c r="O4">
-        <v>7.6537209579068455E-2</v>
+        <v>3.8913321652924271</v>
       </c>
       <c r="P4">
-        <v>0.34090200960027972</v>
+        <v>0.34154942620872991</v>
       </c>
       <c r="Q4">
-        <v>3.6013206253001077E-2</v>
+        <v>8.5612473140935282E-3</v>
       </c>
       <c r="R4">
-        <v>0.23933611312128519</v>
+        <v>-3.1303140216941687E-2</v>
       </c>
       <c r="S4">
-        <v>2.7681258481946889E-2</v>
+        <v>-3.277550345107727E-2</v>
       </c>
       <c r="T4">
-        <v>1.3501962996508701</v>
+        <v>0.25379461820506821</v>
       </c>
       <c r="U4">
-        <v>7.1165833735888959E-2</v>
+        <v>6.1609368580064416E-3</v>
       </c>
       <c r="V4">
-        <v>5.7318971050710763</v>
+        <v>0.96074720634501554</v>
       </c>
       <c r="W4">
-        <v>8.4803561833800487E-2</v>
+        <v>1.553340278795444E-2</v>
       </c>
       <c r="X4">
-        <v>0.2403739605991651</v>
+        <v>3.7878287380678359</v>
       </c>
       <c r="Y4">
-        <v>0.21571169774375551</v>
+        <v>3.567900843931741E-3</v>
       </c>
       <c r="Z4">
-        <v>0.26555404814210531</v>
+        <v>0.25370569386898117</v>
       </c>
       <c r="AA4">
-        <v>1.366671028607428</v>
+        <v>5.8001387463341436E-3</v>
       </c>
       <c r="AB4">
-        <v>1.268754695085917</v>
+        <v>5.8642131778315898E-3</v>
       </c>
       <c r="AC4">
-        <v>1.422591693554089</v>
+        <v>0.96095324833929419</v>
       </c>
       <c r="AD4">
-        <v>5.6730025141696299</v>
+        <v>1.494076611417194E-2</v>
       </c>
       <c r="AE4">
-        <v>4.9525723883947057</v>
+        <v>1.4304377062772209E-2</v>
       </c>
       <c r="AF4">
-        <v>6.50400348868728</v>
+        <v>3.7854238452714499</v>
       </c>
       <c r="AG4">
-        <v>6.1447600503053632E-3</v>
+        <v>0.1098062403504563</v>
       </c>
       <c r="AH4">
-        <v>1.0664264020186771</v>
+        <v>0.10590832002097721</v>
       </c>
       <c r="AI4">
-        <v>2.4194727030065529E-4</v>
+        <v>4.7403073556701531E-3</v>
       </c>
       <c r="AJ4">
-        <v>3.5858179861019718E-2</v>
+        <v>0.82356898187829675</v>
+      </c>
+      <c r="AK4">
+        <v>1.057802632255174E-4</v>
+      </c>
+      <c r="AL4">
+        <v>1.282687870329308E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C5">
-        <v>2.0289740574578108</v>
+        <v>0.34639818465679462</v>
       </c>
       <c r="D5">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5">
-        <v>1.6E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G5">
-        <v>0.27362209075520783</v>
+        <v>0.29289217581844318</v>
       </c>
       <c r="H5">
-        <v>1.039471720321848</v>
+        <v>1.3391209870713201</v>
       </c>
       <c r="I5">
-        <v>3.7989320140521738</v>
+        <v>4.5720613168629294</v>
       </c>
       <c r="J5">
-        <v>0.57611918682129604</v>
+        <v>0.73704718889121468</v>
       </c>
       <c r="K5">
-        <v>7.6406697975273073E-3</v>
+        <v>2.222022598926358E-2</v>
       </c>
       <c r="L5">
-        <v>1.1358266620717301</v>
+        <v>1.5111968192332981</v>
       </c>
       <c r="M5">
-        <v>3.1024739653732449E-2</v>
+        <v>1.9082773437663341</v>
       </c>
       <c r="N5">
-        <v>1.386519982504187</v>
+        <v>4.906452587100369</v>
       </c>
       <c r="O5">
-        <v>1.8388454327375011E-2</v>
+        <v>6.5145630479942191</v>
       </c>
       <c r="P5">
-        <v>0.34154942620872991</v>
+        <v>0.61819583161314107</v>
       </c>
       <c r="Q5">
-        <v>8.5612473140935282E-3</v>
+        <v>0.1047801134662559</v>
       </c>
       <c r="R5">
-        <v>0.25361228348455189</v>
+        <v>-0.12890485873740751</v>
       </c>
       <c r="S5">
-        <v>6.0559875339331994E-3</v>
+        <v>-0.16080615939613541</v>
       </c>
       <c r="T5">
-        <v>0.95895676164775134</v>
+        <v>0.26174513333384047</v>
       </c>
       <c r="U5">
-        <v>1.519331775170798E-2</v>
+        <v>2.5449141291571459E-2</v>
       </c>
       <c r="V5">
-        <v>3.7835425683978561</v>
+        <v>1.4671455378394751</v>
       </c>
       <c r="W5">
-        <v>1.1538174556082491E-2</v>
+        <v>8.5561041816253361E-2</v>
       </c>
       <c r="X5">
-        <v>0.2528966033806912</v>
+        <v>5.6776061983220627</v>
       </c>
       <c r="Y5">
-        <v>0.24720361690328621</v>
+        <v>2.5095098584836668E-2</v>
       </c>
       <c r="Z5">
-        <v>0.25975312045949372</v>
+        <v>0.26145840941957837</v>
       </c>
       <c r="AA5">
-        <v>0.96094253746604585</v>
+        <v>2.4342724146149131E-2</v>
       </c>
       <c r="AB5">
-        <v>0.94269075968143889</v>
+        <v>2.36878927580263E-2</v>
       </c>
       <c r="AC5">
-        <v>0.97207148592212678</v>
+        <v>1.454884567354563</v>
       </c>
       <c r="AD5">
-        <v>3.7878934349572622</v>
+        <v>6.9568708481205777E-2</v>
       </c>
       <c r="AE5">
-        <v>3.6562150099244262</v>
+        <v>0.1136343744330683</v>
       </c>
       <c r="AF5">
-        <v>3.8905300831810181</v>
+        <v>5.5613399593378414</v>
       </c>
       <c r="AG5">
-        <v>4.7434635341873036E-3</v>
+        <v>0.6548873722374724</v>
       </c>
       <c r="AH5">
-        <v>0.82325891326697365</v>
+        <v>0.95322308865637773</v>
       </c>
       <c r="AI5">
-        <v>1.12603368814167E-4</v>
+        <v>8.1247051739302082E-3</v>
       </c>
       <c r="AJ5">
-        <v>1.205788354245993E-2</v>
+        <v>1.120574124327592</v>
+      </c>
+      <c r="AK5">
+        <v>2.200181499085542E-4</v>
+      </c>
+      <c r="AL5">
+        <v>2.0265335122528538E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>0.05</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C6">
-        <v>9.6407271569126707E-2</v>
+        <v>0.19484897886944691</v>
       </c>
       <c r="D6">
         <v>400</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F6">
-        <v>1.6E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G6">
-        <v>0.42476107356462423</v>
+        <v>0.26923650734708221</v>
       </c>
       <c r="H6">
-        <v>2.3453267185540851</v>
+        <v>1.119007385124438</v>
       </c>
       <c r="I6">
-        <v>5.5215198955778622</v>
+        <v>4.1562245631194701</v>
       </c>
       <c r="J6">
-        <v>1.274816987890746</v>
+        <v>0.66901112631115012</v>
       </c>
       <c r="K6">
-        <v>7.858508673913954E-2</v>
+        <v>2.965512785439826E-2</v>
       </c>
       <c r="L6">
-        <v>1.543840950671757</v>
+        <v>1.3993176214801011</v>
       </c>
       <c r="M6">
-        <v>0.22533366874049629</v>
+        <v>1.759952408110691</v>
       </c>
       <c r="N6">
-        <v>3.0680443702955338</v>
+        <v>3.436804617040436</v>
       </c>
       <c r="O6">
-        <v>0.18912717295846551</v>
+        <v>6.4063187428453316</v>
       </c>
       <c r="P6">
-        <v>0.65560800756466564</v>
+        <v>0.48657915584404082</v>
       </c>
       <c r="Q6">
-        <v>9.7966532998895267E-2</v>
+        <v>0.2275530759597654</v>
       </c>
       <c r="R6">
-        <v>0.41287186589267733</v>
+        <v>-0.2183942274358586</v>
       </c>
       <c r="S6">
-        <v>5.4622963611868677E-2</v>
+        <v>-0.26067295700486831</v>
       </c>
       <c r="T6">
-        <v>2.3855194927964209</v>
+        <v>0.26346004851005639</v>
       </c>
       <c r="U6">
-        <v>0.2314158425457386</v>
+        <v>4.5845180708418178E-2</v>
       </c>
       <c r="V6">
-        <v>5.9066084991805239</v>
+        <v>1.24732882673776</v>
       </c>
       <c r="W6">
-        <v>0.1137334928032475</v>
+        <v>0.20439110750425191</v>
       </c>
       <c r="X6">
-        <v>0.41271223447618138</v>
+        <v>4.9914307585454516</v>
       </c>
       <c r="Y6">
-        <v>0.36363249457148228</v>
+        <v>5.1190237553562383E-2</v>
       </c>
       <c r="Z6">
-        <v>0.46726961767117431</v>
+        <v>0.25967988091418659</v>
       </c>
       <c r="AA6">
-        <v>2.3787224037002108</v>
+        <v>3.8824965893080488E-2</v>
       </c>
       <c r="AB6">
-        <v>2.1360773039273662</v>
+        <v>4.6323337206022219E-2</v>
       </c>
       <c r="AC6">
-        <v>2.6273878042599259</v>
+        <v>1.2824971946676831</v>
       </c>
       <c r="AD6">
-        <v>5.7562192368990512</v>
+        <v>0.2346758891918572</v>
       </c>
       <c r="AE6">
-        <v>4.8068354908851409</v>
+        <v>0.1575500687437337</v>
       </c>
       <c r="AF6">
-        <v>7.0461001625100721</v>
+        <v>4.9389309948709421</v>
       </c>
       <c r="AG6">
-        <v>1.1276043925825679E-2</v>
+        <v>1.5021263778305061</v>
       </c>
       <c r="AH6">
-        <v>1.9552992212190159</v>
+        <v>1.46738774797439</v>
       </c>
       <c r="AI6">
-        <v>9.2811562590055098E-4</v>
+        <v>7.4739547325410908E-3</v>
       </c>
       <c r="AJ6">
-        <v>0.15138349906448889</v>
+        <v>1.0311387104733269</v>
+      </c>
+      <c r="AK6">
+        <v>4.1210082625174979E-4</v>
+      </c>
+      <c r="AL6">
+        <v>5.2256757785030493E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>0.1</v>
@@ -1209,213 +1249,457 @@
         <v>400</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>1.7000000000000001E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="G7">
-        <v>0.26892194389754381</v>
+        <v>0.30552748729308338</v>
       </c>
       <c r="H7">
-        <v>1.335928431202474</v>
+        <v>2.337413242089315</v>
       </c>
       <c r="I7">
-        <v>4.967718185584169</v>
+        <v>7.6504188307191603</v>
       </c>
       <c r="J7">
-        <v>0.73704718889121468</v>
+        <v>1.2425346399828749</v>
       </c>
       <c r="K7">
-        <v>2.222022598926358E-2</v>
+        <v>4.4150274179512998E-2</v>
       </c>
       <c r="L7">
-        <v>1.4155700663444239</v>
+        <v>1.6283399193007519</v>
       </c>
       <c r="M7">
-        <v>0.15208211471053659</v>
+        <v>2.7881768497500001</v>
       </c>
       <c r="N7">
-        <v>1.7738181244833211</v>
+        <v>3.872284123520731</v>
       </c>
       <c r="O7">
-        <v>5.3476412614998123E-2</v>
+        <v>13.48511732442743</v>
       </c>
       <c r="P7">
-        <v>0.61819583161314107</v>
+        <v>0.64103878103742629</v>
       </c>
       <c r="Q7">
-        <v>0.1047801134662559</v>
+        <v>8.4233459175516751E-2</v>
       </c>
       <c r="R7">
-        <v>0.26033582032239833</v>
+        <v>-0.22190667562497349</v>
       </c>
       <c r="S7">
-        <v>2.684547323958408E-2</v>
+        <v>-1.215851470070868</v>
       </c>
       <c r="T7">
-        <v>1.471034419328169</v>
+        <v>0.32437228487810638</v>
       </c>
       <c r="U7">
-        <v>8.8226202705104145E-2</v>
+        <v>9.3353277847288557E-2</v>
       </c>
       <c r="V7">
-        <v>5.7354354915381078</v>
+        <v>2.054552248637354</v>
       </c>
       <c r="W7">
-        <v>8.7702025313142709E-2</v>
+        <v>0.56486926540399662</v>
       </c>
       <c r="X7">
-        <v>0.2570464822881896</v>
+        <v>8.6458002940928917</v>
       </c>
       <c r="Y7">
-        <v>0.23676552642697379</v>
+        <v>0.39427563560510531</v>
       </c>
       <c r="Z7">
-        <v>0.28790181386424601</v>
+        <v>0.36014549097507481</v>
       </c>
       <c r="AA7">
-        <v>1.448035699591198</v>
+        <v>0.1566007573036374</v>
       </c>
       <c r="AB7">
-        <v>1.3899788598403331</v>
+        <v>4.9610440601433943E-2</v>
       </c>
       <c r="AC7">
-        <v>1.577059841414977</v>
+        <v>1.864533477691269</v>
       </c>
       <c r="AD7">
-        <v>5.6349721395688599</v>
+        <v>0.31163053337191032</v>
       </c>
       <c r="AE7">
-        <v>4.8872156778208504</v>
+        <v>0.90313783492448874</v>
       </c>
       <c r="AF7">
-        <v>6.6183140939515397</v>
+        <v>5.2748286043516446</v>
       </c>
       <c r="AG7">
-        <v>8.1290932589155023E-3</v>
+        <v>1.402544480830914</v>
       </c>
       <c r="AH7">
-        <v>1.1214961760057831</v>
+        <v>8.2102887200757841</v>
       </c>
       <c r="AI7">
-        <v>2.0825399990938889E-4</v>
+        <v>1.052795748605658E-2</v>
       </c>
       <c r="AJ7">
-        <v>1.997484902347715E-2</v>
+        <v>1.860917626830098</v>
+      </c>
+      <c r="AK7">
+        <v>4.7629428135711511E-4</v>
+      </c>
+      <c r="AL7">
+        <v>8.232593640438117E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="C8">
-        <v>0.13967668736161071</v>
+        <v>0.38969795773889382</v>
       </c>
       <c r="D8">
         <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>1.7000000000000001E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="G8">
-        <v>0.3578862915365324</v>
+        <v>0.36458346578259387</v>
       </c>
       <c r="H8">
-        <v>1.471750058069148</v>
+        <v>2.5773093309178292</v>
       </c>
       <c r="I8">
-        <v>4.1123398489235354</v>
+        <v>7.0691887394989923</v>
       </c>
       <c r="J8">
-        <v>0.83595642614893551</v>
+        <v>1.3951376861797009</v>
       </c>
       <c r="K8">
-        <v>5.2485442450919968E-2</v>
+        <v>3.2902326735445762E-2</v>
       </c>
       <c r="L8">
-        <v>1.031643170495552</v>
+        <v>1.263518776073782</v>
       </c>
       <c r="M8">
-        <v>0.15304753960001449</v>
+        <v>3.1228025134564619</v>
       </c>
       <c r="N8">
-        <v>2.011858511002536</v>
+        <v>1.3757841043022221</v>
       </c>
       <c r="O8">
-        <v>0.1263143398335507</v>
+        <v>7.7589382933536797</v>
       </c>
       <c r="P8">
-        <v>0.58166624613811091</v>
+        <v>0.40345541898009207</v>
       </c>
       <c r="Q8">
-        <v>7.9892156739939615E-2</v>
+        <v>4.7584767589069633E-2</v>
       </c>
       <c r="R8">
-        <v>0.40515773770274738</v>
+        <v>-0.2134842109464172</v>
       </c>
       <c r="S8">
-        <v>5.4458264980980761E-2</v>
+        <v>-0.6033953172368367</v>
       </c>
       <c r="T8">
-        <v>1.296685355716283</v>
+        <v>0.49987771924733759</v>
       </c>
       <c r="U8">
-        <v>0.25177100665887592</v>
+        <v>0.1060315969019598</v>
       </c>
       <c r="V8">
-        <v>3.32559438456081</v>
+        <v>1.673550410889562</v>
       </c>
       <c r="W8">
-        <v>0.106079192386623</v>
+        <v>0.63749261375775657</v>
       </c>
       <c r="X8">
-        <v>0.41369965019254662</v>
+        <v>3.8460249726457452</v>
       </c>
       <c r="Y8">
-        <v>0.33710094044928779</v>
+        <v>7.7233406113009592E-2</v>
       </c>
       <c r="Z8">
-        <v>0.44427069649853052</v>
+        <v>0.5151938548443058</v>
       </c>
       <c r="AA8">
-        <v>1.2784393454302769</v>
+        <v>0.16901467681442189</v>
       </c>
       <c r="AB8">
-        <v>1.074651358759767</v>
+        <v>0.10966425013681851</v>
       </c>
       <c r="AC8">
-        <v>1.604731543912906</v>
+        <v>1.562874710464401</v>
       </c>
       <c r="AD8">
-        <v>2.9672928437058772</v>
+        <v>0.68347588136593651</v>
       </c>
       <c r="AE8">
-        <v>2.4808994814396539</v>
+        <v>1.0842839396733319</v>
       </c>
       <c r="AF8">
-        <v>4.7083838920737113</v>
+        <v>3.016940242512371</v>
       </c>
       <c r="AG8">
-        <v>9.5010424449624101E-3</v>
+        <v>1.6411561382101489</v>
       </c>
       <c r="AH8">
-        <v>1.308306414642189</v>
+        <v>4.7419980508413087</v>
       </c>
       <c r="AI8">
-        <v>9.3698280636479888E-4</v>
+        <v>1.167324241835244E-2</v>
       </c>
       <c r="AJ8">
-        <v>0.12458393671261089</v>
+        <v>2.0946810061014172</v>
+      </c>
+      <c r="AK8">
+        <v>3.799673387009889E-4</v>
+      </c>
+      <c r="AL8">
+        <v>6.3866612842243653E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9">
+        <v>0.69279636931358912</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.34535884722299648</v>
+      </c>
+      <c r="H9">
+        <v>2.6380127118500898</v>
+      </c>
+      <c r="I9">
+        <v>7.6384686046474402</v>
+      </c>
+      <c r="J9">
+        <v>1.3988045271165559</v>
+      </c>
+      <c r="K9">
+        <v>3.5391192874619309E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.219142864960052</v>
+      </c>
+      <c r="M9">
+        <v>3.0982123070202912</v>
+      </c>
+      <c r="N9">
+        <v>1.7561716107364249</v>
+      </c>
+      <c r="O9">
+        <v>6.9153055215184533</v>
+      </c>
+      <c r="P9">
+        <v>0.31818340856829269</v>
+      </c>
+      <c r="Q9">
+        <v>9.5324519579774322E-2</v>
+      </c>
+      <c r="R9">
+        <v>-0.10751906536286369</v>
+      </c>
+      <c r="S9">
+        <v>-0.63421668711823598</v>
+      </c>
+      <c r="T9">
+        <v>0.47033846868434082</v>
+      </c>
+      <c r="U9">
+        <v>0.105408843215703</v>
+      </c>
+      <c r="V9">
+        <v>1.6744366510071489</v>
+      </c>
+      <c r="W9">
+        <v>0.65034879142230739</v>
+      </c>
+      <c r="X9">
+        <v>4.0920825541831869</v>
+      </c>
+      <c r="Y9">
+        <v>7.6175660171687892E-2</v>
+      </c>
+      <c r="Z9">
+        <v>0.5397305615482626</v>
+      </c>
+      <c r="AA9">
+        <v>0.19183085957544571</v>
+      </c>
+      <c r="AB9">
+        <v>3.6703926245200802E-2</v>
+      </c>
+      <c r="AC9">
+        <v>1.256748433369451</v>
+      </c>
+      <c r="AD9">
+        <v>0.23848791128824759</v>
+      </c>
+      <c r="AE9">
+        <v>1.1639161179779409</v>
+      </c>
+      <c r="AF9">
+        <v>2.269994369059201</v>
+      </c>
+      <c r="AG9">
+        <v>0.51382275832277569</v>
+      </c>
+      <c r="AH9">
+        <v>4.6453111524592527</v>
+      </c>
+      <c r="AI9">
+        <v>1.1600013572758781E-2</v>
+      </c>
+      <c r="AJ9">
+        <v>2.0814984821471558</v>
+      </c>
+      <c r="AK9">
+        <v>4.0341906886977178E-4</v>
+      </c>
+      <c r="AL9">
+        <v>6.7625318156218167E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>0.69279636931358912</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.31490932208129979</v>
+      </c>
+      <c r="H10">
+        <v>2.6145994148196059</v>
+      </c>
+      <c r="I10">
+        <v>8.3027056726653452</v>
+      </c>
+      <c r="J10">
+        <v>1.394589963710777</v>
+      </c>
+      <c r="K10">
+        <v>2.1111774223895461E-2</v>
+      </c>
+      <c r="L10">
+        <v>1.5599681623452351</v>
+      </c>
+      <c r="M10">
+        <v>3.1199074367590431</v>
+      </c>
+      <c r="N10">
+        <v>2.1166584595393649</v>
+      </c>
+      <c r="O10">
+        <v>9.1099651622674518</v>
+      </c>
+      <c r="P10">
+        <v>0.22520535146568141</v>
+      </c>
+      <c r="Q10">
+        <v>3.2953326751512232E-2</v>
+      </c>
+      <c r="R10">
+        <v>-0.35498334767917239</v>
+      </c>
+      <c r="S10">
+        <v>-0.63993973909184776</v>
+      </c>
+      <c r="T10">
+        <v>0.41726902511970348</v>
+      </c>
+      <c r="U10">
+        <v>0.10371059568665809</v>
+      </c>
+      <c r="V10">
+        <v>1.9007468188695591</v>
+      </c>
+      <c r="W10">
+        <v>0.63060610310570675</v>
+      </c>
+      <c r="X10">
+        <v>5.2648609880176274</v>
+      </c>
+      <c r="Y10">
+        <v>9.173368868287364E-2</v>
+      </c>
+      <c r="Z10">
+        <v>0.41589317712556229</v>
+      </c>
+      <c r="AA10">
+        <v>0.12159952879979111</v>
+      </c>
+      <c r="AB10">
+        <v>0.1234980301532775</v>
+      </c>
+      <c r="AC10">
+        <v>1.9031697292490291</v>
+      </c>
+      <c r="AD10">
+        <v>0.74574230047248413</v>
+      </c>
+      <c r="AE10">
+        <v>0.75531089621698899</v>
+      </c>
+      <c r="AF10">
+        <v>4.5823926065649356</v>
+      </c>
+      <c r="AG10">
+        <v>2.4657341470255698</v>
+      </c>
+      <c r="AH10">
+        <v>4.5275725557025162</v>
+      </c>
+      <c r="AI10">
+        <v>1.1646792685043931E-2</v>
+      </c>
+      <c r="AJ10">
+        <v>2.091910979654561</v>
+      </c>
+      <c r="AK10">
+        <v>2.0209552596591311E-4</v>
+      </c>
+      <c r="AL10">
+        <v>3.471975595468936E-2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/clockshift/sumrule_analysis_results.xlsx
+++ b/clockshift/sumrule_analysis_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Analysis Scripts\analysis\clockshift\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\UNOBTAINIUM\E_Carmen_Santiago\Analysis Scripts\analysis\clockshift\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Run</t>
   </si>
@@ -36,6 +36,9 @@
     <t>Pulse Type</t>
   </si>
   <si>
+    <t>ToTF</t>
+  </si>
+  <si>
     <t>EF</t>
   </si>
   <si>
@@ -129,27 +132,30 @@
     <t>FM extrapolation</t>
   </si>
   <si>
+    <t>FM interpolation</t>
+  </si>
+  <si>
     <t>e_SR extrapolation</t>
   </si>
   <si>
     <t>e_FM extrapolation</t>
   </si>
   <si>
+    <t>e_FM interpolation</t>
+  </si>
+  <si>
+    <t>2024-07-18_E_e.dat</t>
+  </si>
+  <si>
     <t>Blackman</t>
   </si>
   <si>
-    <t>2024-06-12_K_e.dat</t>
-  </si>
-  <si>
     <t>KaiserOffset</t>
   </si>
   <si>
     <t>2024-06-18_G_e.dat</t>
   </si>
   <si>
-    <t>2024-06-20_D_e.dat</t>
-  </si>
-  <si>
     <t>2024-07-03_D_e.dat</t>
   </si>
   <si>
@@ -163,9 +169,6 @@
   </si>
   <si>
     <t>2024-07-18_D_e.dat</t>
-  </si>
-  <si>
-    <t>2024-07-18_E_e.dat</t>
   </si>
 </sst>
 </file>
@@ -531,15 +534,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL10"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,126 +660,144 @@
       <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.90882213288603608</v>
+        <v>0.69279636931358912</v>
       </c>
       <c r="D2">
         <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F2">
-        <v>1.6E-2</v>
+        <v>0.40073399999999998</v>
       </c>
       <c r="G2">
-        <v>0.23567540012778959</v>
+        <v>1.29E-2</v>
       </c>
       <c r="H2">
-        <v>1.158999158757531</v>
+        <v>0.34575009253354771</v>
       </c>
       <c r="I2">
-        <v>4.9177774096451747</v>
+        <v>2.5874362184195712</v>
       </c>
       <c r="J2">
-        <v>0.64891896175876818</v>
+        <v>7.4835445435738093</v>
       </c>
       <c r="K2">
-        <v>1.125553123615225E-2</v>
+        <v>1.397124617994697</v>
       </c>
       <c r="L2">
-        <v>1.3651414946358049</v>
+        <v>2.3002212082845992E-2</v>
       </c>
       <c r="M2">
-        <v>1.5977710264113449</v>
+        <v>2.031455713933882</v>
       </c>
       <c r="N2">
-        <v>4.1905153273352704</v>
+        <v>3.5007623189357959</v>
       </c>
       <c r="O2">
-        <v>4.9068882926961823</v>
+        <v>7.5592438099766968</v>
       </c>
       <c r="P2">
-        <v>0.27367789830328221</v>
+        <v>8.131871370741079</v>
       </c>
       <c r="Q2">
-        <v>3.182356090476033E-2</v>
+        <v>0.22176710182498399</v>
       </c>
       <c r="R2">
-        <v>-6.2624720332954631E-2</v>
+        <v>3.2450222526298297E-2</v>
       </c>
       <c r="S2">
-        <v>-5.9099398750130483E-2</v>
+        <v>7.3272015789888068E-2</v>
       </c>
       <c r="T2">
-        <v>0.24354607428245709</v>
+        <v>7.7626943722828301E-2</v>
       </c>
       <c r="U2">
-        <v>9.696320994482234E-3</v>
+        <v>0.32165926477927292</v>
       </c>
       <c r="V2">
-        <v>1.1116000685098479</v>
+        <v>1.053208426136569E-2</v>
       </c>
       <c r="W2">
-        <v>4.2305891620640683E-2</v>
+        <v>2.5200690852366652</v>
       </c>
       <c r="X2">
-        <v>4.575849068089191</v>
+        <v>4.2285653873192927E-2</v>
       </c>
       <c r="Y2">
-        <v>1.013445923562273E-2</v>
+        <v>7.8426086704958333</v>
       </c>
       <c r="Z2">
-        <v>0.24297456946628929</v>
+        <v>8.7859748822650945E-3</v>
       </c>
       <c r="AA2">
-        <v>9.2457976433859002E-3</v>
+        <v>0.32151411650323453</v>
       </c>
       <c r="AB2">
-        <v>1.102558676022561E-2</v>
+        <v>1.054882944419977E-2</v>
       </c>
       <c r="AC2">
-        <v>1.122378162667196</v>
+        <v>1.076326982606185E-2</v>
       </c>
       <c r="AD2">
-        <v>6.3858631933158216E-2</v>
+        <v>2.517581083823293</v>
       </c>
       <c r="AE2">
-        <v>3.1981445316191293E-2</v>
+        <v>4.0231934556452131E-2</v>
       </c>
       <c r="AF2">
-        <v>4.6460560086648597</v>
+        <v>4.4981309597079473E-2</v>
       </c>
       <c r="AG2">
-        <v>0.45554068132959008</v>
+        <v>7.8409355752786984</v>
       </c>
       <c r="AH2">
-        <v>0.26083228403132258</v>
+        <v>0.2816917653020008</v>
       </c>
       <c r="AI2">
-        <v>6.916466736112385E-3</v>
+        <v>0.29093579546238152</v>
       </c>
       <c r="AJ2">
-        <v>0.97420981896525138</v>
+        <v>1.164641954993762E-2</v>
       </c>
       <c r="AK2">
-        <v>1.8664039226050729E-4</v>
+        <v>2.1230046805334939</v>
       </c>
       <c r="AL2">
-        <v>1.7036891004852499E-2</v>
+        <v>0.39706440470317028</v>
+      </c>
+      <c r="AM2">
+        <v>2.2819284462932649E-4</v>
+      </c>
+      <c r="AN2">
+        <v>3.6377573618133513E-2</v>
+      </c>
+      <c r="AO2">
+        <v>1.9333094202458451E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -785,918 +809,740 @@
         <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F3">
-        <v>1.6E-2</v>
+        <v>0.29538399999999998</v>
       </c>
       <c r="G3">
-        <v>0.25606193235340652</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H3">
-        <v>1.2919328522934459</v>
+        <v>0.25886090600540462</v>
       </c>
       <c r="I3">
-        <v>5.0453921065876033</v>
+        <v>1.637686917823105</v>
       </c>
       <c r="J3">
-        <v>0.67866984060255409</v>
+        <v>6.3265131189369814</v>
       </c>
       <c r="K3">
-        <v>3.18023220008882E-2</v>
+        <v>0.86724418087139543</v>
       </c>
       <c r="L3">
-        <v>1.552517178630844</v>
+        <v>2.8140392671554351E-2</v>
       </c>
       <c r="M3">
-        <v>1.8156642806550409</v>
+        <v>1.863901976463664</v>
       </c>
       <c r="N3">
-        <v>4.8675991363953814</v>
+        <v>2.5836917131459689</v>
       </c>
       <c r="O3">
-        <v>6.4386040556799884</v>
+        <v>6.0425755394767027</v>
       </c>
       <c r="P3">
-        <v>0.34090200960027972</v>
+        <v>7.6019449807745074</v>
       </c>
       <c r="Q3">
-        <v>3.6013206253001077E-2</v>
+        <v>0.27698288280022709</v>
       </c>
       <c r="R3">
-        <v>-0.17954806267467679</v>
+        <v>2.9260730080563371E-2</v>
       </c>
       <c r="S3">
-        <v>-0.20938387376391929</v>
+        <v>0.20482691360012481</v>
       </c>
       <c r="T3">
-        <v>0.2429339272419348</v>
+        <v>0.21888632088676799</v>
       </c>
       <c r="U3">
-        <v>2.778759131374189E-2</v>
+        <v>0.26098209466436167</v>
       </c>
       <c r="V3">
-        <v>1.3492872581407189</v>
+        <v>2.5708900146652409E-2</v>
       </c>
       <c r="W3">
-        <v>7.3481008848355178E-2</v>
+        <v>1.767587468087839</v>
       </c>
       <c r="X3">
-        <v>5.6371943599527254</v>
+        <v>7.3442315321344862E-2</v>
       </c>
       <c r="Y3">
-        <v>2.479630094962209E-2</v>
+        <v>6.837812530963415</v>
       </c>
       <c r="Z3">
-        <v>0.2426901701809793</v>
+        <v>2.286250093046727E-2</v>
       </c>
       <c r="AA3">
-        <v>2.8205630764999299E-2</v>
+        <v>0.25943744030841381</v>
       </c>
       <c r="AB3">
-        <v>2.9058499955154141E-2</v>
+        <v>2.4382545869689048E-2</v>
       </c>
       <c r="AC3">
-        <v>1.353843067623282</v>
+        <v>3.0078640621714781E-2</v>
       </c>
       <c r="AD3">
-        <v>7.4072240622728991E-2</v>
+        <v>1.764876973303533</v>
       </c>
       <c r="AE3">
-        <v>6.8362895289295178E-2</v>
+        <v>7.1674825387578744E-2</v>
       </c>
       <c r="AF3">
-        <v>5.5831085531582154</v>
+        <v>7.9596755355644477E-2</v>
       </c>
       <c r="AG3">
-        <v>0.71550941676283486</v>
+        <v>6.804432350800429</v>
       </c>
       <c r="AH3">
-        <v>0.85549550252177298</v>
+        <v>0.76185681132372629</v>
       </c>
       <c r="AI3">
-        <v>6.1308255604242499E-3</v>
+        <v>0.79751262997407846</v>
       </c>
       <c r="AJ3">
-        <v>1.065077949859079</v>
+        <v>7.1195704979564386E-3</v>
       </c>
       <c r="AK3">
-        <v>2.6165883876611983E-4</v>
+        <v>1.521417068561834</v>
       </c>
       <c r="AL3">
-        <v>4.0300132917553723E-2</v>
+        <v>0.24617039952600511</v>
+      </c>
+      <c r="AM3">
+        <v>3.4469644213851018E-4</v>
+      </c>
+      <c r="AN3">
+        <v>6.7434202556695549E-2</v>
+      </c>
+      <c r="AO3">
+        <v>2.4287659089785071E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>0.34639818465679462</v>
+      </c>
+      <c r="D4">
+        <v>400</v>
+      </c>
+      <c r="E4" t="s">
         <v>42</v>
       </c>
-      <c r="B4">
-        <v>0.3</v>
-      </c>
-      <c r="C4">
-        <v>2.0289740574578108</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
       <c r="F4">
-        <v>1.6E-2</v>
+        <v>0.51547100000000001</v>
       </c>
       <c r="G4">
-        <v>0.25155824262578858</v>
+        <v>1.9E-2</v>
       </c>
       <c r="H4">
-        <v>1.0389696205128769</v>
+        <v>0.2456383896804315</v>
       </c>
       <c r="I4">
-        <v>4.1301354694961052</v>
+        <v>1.2241140807297319</v>
       </c>
       <c r="J4">
-        <v>0.57611918682129604</v>
+        <v>4.9833988991796829</v>
       </c>
       <c r="K4">
-        <v>7.6406697975273073E-3</v>
+        <v>0.67952121001525068</v>
       </c>
       <c r="L4">
-        <v>1.1449925677591051</v>
+        <v>2.3100145871257881E-2</v>
       </c>
       <c r="M4">
-        <v>1.398235259557735</v>
+        <v>1.27678385477436</v>
       </c>
       <c r="N4">
-        <v>3.6756176049209941</v>
+        <v>1.655201464509622</v>
       </c>
       <c r="O4">
-        <v>3.8913321652924271</v>
+        <v>3.7421001134789251</v>
       </c>
       <c r="P4">
-        <v>0.34154942620872991</v>
+        <v>4.2553352292592219</v>
       </c>
       <c r="Q4">
-        <v>8.5612473140935282E-3</v>
+        <v>0.69092475297939293</v>
       </c>
       <c r="R4">
-        <v>-3.1303140216941687E-2</v>
+        <v>0.11710718563875649</v>
       </c>
       <c r="S4">
-        <v>-3.277550345107727E-2</v>
+        <v>8.3583591459208018E-2</v>
       </c>
       <c r="T4">
-        <v>0.25379461820506821</v>
+        <v>8.6607432935758233E-2</v>
       </c>
       <c r="U4">
-        <v>6.1609368580064416E-3</v>
+        <v>0.29393605971102149</v>
       </c>
       <c r="V4">
-        <v>0.96074720634501554</v>
+        <v>1.8882516738510342E-2</v>
       </c>
       <c r="W4">
-        <v>1.553340278795444E-2</v>
+        <v>1.169436603213222</v>
       </c>
       <c r="X4">
-        <v>3.7878287380678359</v>
+        <v>2.3324519003489891E-2</v>
       </c>
       <c r="Y4">
-        <v>3.567900843931741E-3</v>
+        <v>3.994675197462084</v>
       </c>
       <c r="Z4">
-        <v>0.25370569386898117</v>
+        <v>8.3615209325394926E-3</v>
       </c>
       <c r="AA4">
-        <v>5.8001387463341436E-3</v>
+        <v>0.29323976474431712</v>
       </c>
       <c r="AB4">
-        <v>5.8642131778315898E-3</v>
+        <v>1.774311743723872E-2</v>
       </c>
       <c r="AC4">
-        <v>0.96095324833929419</v>
+        <v>1.9514000616704389E-2</v>
       </c>
       <c r="AD4">
-        <v>1.494076611417194E-2</v>
+        <v>1.170163668382473</v>
       </c>
       <c r="AE4">
-        <v>1.4304377062772209E-2</v>
+        <v>2.301251399027926E-2</v>
       </c>
       <c r="AF4">
-        <v>3.7854238452714499</v>
+        <v>2.292960123265075E-2</v>
       </c>
       <c r="AG4">
-        <v>0.1098062403504563</v>
+        <v>3.9793562203413928</v>
       </c>
       <c r="AH4">
-        <v>0.10590832002097721</v>
+        <v>0.23725610686246809</v>
       </c>
       <c r="AI4">
-        <v>4.7403073556701531E-3</v>
+        <v>0.27597900891782912</v>
       </c>
       <c r="AJ4">
-        <v>0.82356898187829675</v>
+        <v>8.1190111716712265E-3</v>
       </c>
       <c r="AK4">
-        <v>1.057802632255174E-4</v>
+        <v>1.0022327152273489</v>
       </c>
       <c r="AL4">
-        <v>1.282687870329308E-2</v>
+        <v>0.16720388798587321</v>
+      </c>
+      <c r="AM4">
+        <v>2.2289588618732689E-4</v>
+      </c>
+      <c r="AN4">
+        <v>1.8137132963716329E-2</v>
+      </c>
+      <c r="AO4">
+        <v>1.355010210667431E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C5">
-        <v>0.34639818465679462</v>
+        <v>0.19484897886944691</v>
       </c>
       <c r="D5">
         <v>400</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F5">
-        <v>1.7000000000000001E-2</v>
+        <v>0.51547100000000001</v>
       </c>
       <c r="G5">
-        <v>0.29289217581844318</v>
+        <v>1.9E-2</v>
       </c>
       <c r="H5">
-        <v>1.3391209870713201</v>
+        <v>0.29556213311980373</v>
       </c>
       <c r="I5">
-        <v>4.5720613168629294</v>
+        <v>1.019844680231397</v>
       </c>
       <c r="J5">
-        <v>0.73704718889121468</v>
+        <v>3.450525510377243</v>
       </c>
       <c r="K5">
-        <v>2.222022598926358E-2</v>
+        <v>0.63167711278567062</v>
       </c>
       <c r="L5">
-        <v>1.5111968192332981</v>
+        <v>3.158441585748413E-2</v>
       </c>
       <c r="M5">
-        <v>1.9082773437663341</v>
+        <v>1.2452173244539471</v>
       </c>
       <c r="N5">
-        <v>4.906452587100369</v>
+        <v>1.522827934323963</v>
       </c>
       <c r="O5">
-        <v>6.5145630479942191</v>
+        <v>3.5598861050664889</v>
       </c>
       <c r="P5">
-        <v>0.61819583161314107</v>
+        <v>4.2379300331369976</v>
       </c>
       <c r="Q5">
-        <v>0.1047801134662559</v>
+        <v>0.54382376241392782</v>
       </c>
       <c r="R5">
-        <v>-0.12890485873740751</v>
+        <v>0.25432402607267901</v>
       </c>
       <c r="S5">
-        <v>-0.16080615939613541</v>
+        <v>0.1065682436342659</v>
       </c>
       <c r="T5">
-        <v>0.26174513333384047</v>
+        <v>0.1272452224601239</v>
       </c>
       <c r="U5">
-        <v>2.5449141291571459E-2</v>
+        <v>0.27531461391251633</v>
       </c>
       <c r="V5">
-        <v>1.4671455378394751</v>
+        <v>2.105693956014594E-2</v>
       </c>
       <c r="W5">
-        <v>8.5561041816253361E-2</v>
+        <v>1.065142886346081</v>
       </c>
       <c r="X5">
-        <v>5.6776061983220627</v>
+        <v>5.0180395735931041E-2</v>
       </c>
       <c r="Y5">
-        <v>2.5095098584836668E-2</v>
+        <v>3.8911039212714749</v>
       </c>
       <c r="Z5">
-        <v>0.26145840941957837</v>
+        <v>1.0913023855240451E-2</v>
       </c>
       <c r="AA5">
-        <v>2.4342724146149131E-2</v>
+        <v>0.27592596976771439</v>
       </c>
       <c r="AB5">
-        <v>2.36878927580263E-2</v>
+        <v>2.2893622077018231E-2</v>
       </c>
       <c r="AC5">
-        <v>1.454884567354563</v>
+        <v>2.0861236399161761E-2</v>
       </c>
       <c r="AD5">
-        <v>6.9568708481205777E-2</v>
+        <v>1.066973789986617</v>
       </c>
       <c r="AE5">
-        <v>0.1136343744330683</v>
+        <v>5.3005372217712621E-2</v>
       </c>
       <c r="AF5">
-        <v>5.5613399593378414</v>
+        <v>4.7034596505816977E-2</v>
       </c>
       <c r="AG5">
-        <v>0.6548873722374724</v>
+        <v>3.871586863557321</v>
       </c>
       <c r="AH5">
-        <v>0.95322308865637773</v>
+        <v>0.31170075849083201</v>
       </c>
       <c r="AI5">
-        <v>8.1247051739302082E-3</v>
+        <v>0.36634316957967789</v>
       </c>
       <c r="AJ5">
-        <v>1.120574124327592</v>
+        <v>7.4547565933317569E-3</v>
       </c>
       <c r="AK5">
-        <v>2.200181499085542E-4</v>
+        <v>0.91927959170127194</v>
       </c>
       <c r="AL5">
-        <v>2.0265335122528538E-2</v>
+        <v>0.14586329464480879</v>
+      </c>
+      <c r="AM5">
+        <v>4.1474560780430071E-4</v>
+      </c>
+      <c r="AN5">
+        <v>4.6715877278528467E-2</v>
+      </c>
+      <c r="AO5">
+        <v>1.309193534467634E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
-        <v>0.19484897886944691</v>
+        <v>0.34639818465679462</v>
       </c>
       <c r="D6">
         <v>400</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F6">
-        <v>1.7000000000000001E-2</v>
+        <v>0.42105999999999999</v>
       </c>
       <c r="G6">
-        <v>0.26923650734708221</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H6">
-        <v>1.119007385124438</v>
+        <v>0.27286194261003721</v>
       </c>
       <c r="I6">
-        <v>4.1562245631194701</v>
+        <v>2.0928055887829138</v>
       </c>
       <c r="J6">
-        <v>0.66901112631115012</v>
+        <v>7.6698332085609469</v>
       </c>
       <c r="K6">
-        <v>2.965512785439826E-2</v>
+        <v>1.170007635579446</v>
       </c>
       <c r="L6">
-        <v>1.3993176214801011</v>
+        <v>4.15732135272045E-2</v>
       </c>
       <c r="M6">
-        <v>1.759952408110691</v>
+        <v>1.8450725413706059</v>
       </c>
       <c r="N6">
-        <v>3.436804617040436</v>
+        <v>2.779313558688977</v>
       </c>
       <c r="O6">
-        <v>6.4063187428453316</v>
+        <v>5.9398739015108752</v>
       </c>
       <c r="P6">
-        <v>0.48657915584404082</v>
+        <v>7.0482714409118294</v>
       </c>
       <c r="Q6">
-        <v>0.2275530759597654</v>
+        <v>0.7229760688392024</v>
       </c>
       <c r="R6">
-        <v>-0.2183942274358586</v>
+        <v>9.500014192727449E-2</v>
       </c>
       <c r="S6">
-        <v>-0.26067295700486831</v>
+        <v>0.16047537770428749</v>
       </c>
       <c r="T6">
-        <v>0.26346004851005639</v>
+        <v>0.1814559699236464</v>
       </c>
       <c r="U6">
-        <v>4.5845180708418178E-2</v>
+        <v>0.30386540707620308</v>
       </c>
       <c r="V6">
-        <v>1.24732882673776</v>
+        <v>2.3389793271440779E-2</v>
       </c>
       <c r="W6">
-        <v>0.20439110750425191</v>
+        <v>1.967854339321083</v>
       </c>
       <c r="X6">
-        <v>4.9914307585454516</v>
+        <v>8.8878748958750961E-2</v>
       </c>
       <c r="Y6">
-        <v>5.1190237553562383E-2</v>
+        <v>6.5120021533357102</v>
       </c>
       <c r="Z6">
-        <v>0.25967988091418659</v>
+        <v>1.7460451334222318E-2</v>
       </c>
       <c r="AA6">
-        <v>3.8824965893080488E-2</v>
+        <v>0.30328527744736261</v>
       </c>
       <c r="AB6">
-        <v>4.6323337206022219E-2</v>
+        <v>2.259080711960498E-2</v>
       </c>
       <c r="AC6">
-        <v>1.2824971946676831</v>
+        <v>2.4586505429528949E-2</v>
       </c>
       <c r="AD6">
-        <v>0.2346758891918572</v>
+        <v>1.966012209399844</v>
       </c>
       <c r="AE6">
-        <v>0.1575500687437337</v>
+        <v>8.433311619517192E-2</v>
       </c>
       <c r="AF6">
-        <v>4.9389309948709421</v>
+        <v>9.1530205457641456E-2</v>
       </c>
       <c r="AG6">
-        <v>1.5021263778305061</v>
+        <v>6.5038134812060893</v>
       </c>
       <c r="AH6">
-        <v>1.46738774797439</v>
+        <v>0.56393957969521402</v>
       </c>
       <c r="AI6">
-        <v>7.4739547325410908E-3</v>
+        <v>0.54445795970573929</v>
       </c>
       <c r="AJ6">
-        <v>1.0311387104733269</v>
+        <v>1.0765495854008369E-2</v>
       </c>
       <c r="AK6">
-        <v>4.1210082625174979E-4</v>
+        <v>1.6885660138761991</v>
       </c>
       <c r="AL6">
-        <v>5.2256757785030493E-2</v>
+        <v>0.27928832544488408</v>
+      </c>
+      <c r="AM6">
+        <v>5.2371283149256205E-4</v>
+      </c>
+      <c r="AN6">
+        <v>8.1915086713330088E-2</v>
+      </c>
+      <c r="AO6">
+        <v>2.988515705446507E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="C7">
-        <v>0.34639818465679462</v>
+        <v>0.38969795773889382</v>
       </c>
       <c r="D7">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>1.3299999999999999E-2</v>
+        <v>0.40073399999999998</v>
       </c>
       <c r="G7">
-        <v>0.30552748729308338</v>
+        <v>1.29E-2</v>
       </c>
       <c r="H7">
-        <v>2.337413242089315</v>
+        <v>0.38424699042418209</v>
       </c>
       <c r="I7">
-        <v>7.6504188307191603</v>
+        <v>2.5619653736225092</v>
       </c>
       <c r="J7">
-        <v>1.2425346399828749</v>
+        <v>6.667496265342967</v>
       </c>
       <c r="K7">
-        <v>4.4150274179512998E-2</v>
+        <v>1.417804256464418</v>
       </c>
       <c r="L7">
-        <v>1.6283399193007519</v>
+        <v>3.5065530067261173E-2</v>
       </c>
       <c r="M7">
-        <v>2.7881768497500001</v>
+        <v>1.788365551831953</v>
       </c>
       <c r="N7">
-        <v>3.872284123520731</v>
+        <v>3.498046343546489</v>
       </c>
       <c r="O7">
-        <v>13.48511732442743</v>
+        <v>6.4613314583603048</v>
       </c>
       <c r="P7">
-        <v>0.64103878103742629</v>
+        <v>7.3788164715777604</v>
       </c>
       <c r="Q7">
-        <v>8.4233459175516751E-2</v>
+        <v>0.39729579426283879</v>
       </c>
       <c r="R7">
-        <v>-0.22190667562497349</v>
+        <v>4.6858282587709778E-2</v>
       </c>
       <c r="S7">
-        <v>-1.215851470070868</v>
+        <v>0.11197225003659519</v>
       </c>
       <c r="T7">
-        <v>0.32437228487810638</v>
+        <v>0.13096745012653649</v>
       </c>
       <c r="U7">
-        <v>9.3353277847288557E-2</v>
+        <v>0.36547217952493738</v>
       </c>
       <c r="V7">
-        <v>2.054552248637354</v>
+        <v>2.210248141323818E-2</v>
       </c>
       <c r="W7">
-        <v>0.56486926540399662</v>
+        <v>2.520369678293688</v>
       </c>
       <c r="X7">
-        <v>8.6458002940928917</v>
+        <v>8.0850755215610942E-2</v>
       </c>
       <c r="Y7">
-        <v>0.39427563560510531</v>
+        <v>6.9209450664630383</v>
       </c>
       <c r="Z7">
-        <v>0.36014549097507481</v>
+        <v>1.475097425763967E-2</v>
       </c>
       <c r="AA7">
-        <v>0.1566007573036374</v>
+        <v>0.36590186563912169</v>
       </c>
       <c r="AB7">
-        <v>4.9610440601433943E-2</v>
+        <v>2.1672293820240222E-2</v>
       </c>
       <c r="AC7">
-        <v>1.864533477691269</v>
+        <v>2.0089091655621501E-2</v>
       </c>
       <c r="AD7">
-        <v>0.31163053337191032</v>
+        <v>2.5170557878181792</v>
       </c>
       <c r="AE7">
-        <v>0.90313783492448874</v>
+        <v>7.4319193501812819E-2</v>
       </c>
       <c r="AF7">
-        <v>5.2748286043516446</v>
+        <v>8.5564432689347214E-2</v>
       </c>
       <c r="AG7">
-        <v>1.402544480830914</v>
+        <v>6.8952577781207776</v>
       </c>
       <c r="AH7">
-        <v>8.2102887200757841</v>
+        <v>0.4339263197604728</v>
       </c>
       <c r="AI7">
-        <v>1.052795748605658E-2</v>
+        <v>0.48355869345698199</v>
       </c>
       <c r="AJ7">
-        <v>1.860917626830098</v>
+        <v>1.166133495151471E-2</v>
       </c>
       <c r="AK7">
-        <v>4.7629428135711511E-4</v>
+        <v>2.125912736949378</v>
       </c>
       <c r="AL7">
-        <v>8.232593640438117E-2</v>
+        <v>0.39445694134431097</v>
+      </c>
+      <c r="AM7">
+        <v>3.8616289130363242E-4</v>
+      </c>
+      <c r="AN7">
+        <v>6.8005650526214406E-2</v>
+      </c>
+      <c r="AO7">
+        <v>3.9634115327390473E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B8">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <v>0.38969795773889382</v>
+        <v>0.69279636931358912</v>
       </c>
       <c r="D8">
         <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F8">
-        <v>1.3100000000000001E-2</v>
+        <v>0.40073399999999998</v>
       </c>
       <c r="G8">
-        <v>0.36458346578259387</v>
+        <v>1.29E-2</v>
       </c>
       <c r="H8">
-        <v>2.5773093309178292</v>
+        <v>0.37343454787961938</v>
       </c>
       <c r="I8">
-        <v>7.0691887394989923</v>
+        <v>2.633206154820861</v>
       </c>
       <c r="J8">
-        <v>1.3951376861797009</v>
+        <v>7.051319085961226</v>
       </c>
       <c r="K8">
-        <v>3.2902326735445762E-2</v>
+        <v>1.426786095544071</v>
       </c>
       <c r="L8">
-        <v>1.263518776073782</v>
+        <v>3.4192382462813108E-2</v>
       </c>
       <c r="M8">
-        <v>3.1228025134564619</v>
+        <v>1.8755247617355979</v>
       </c>
       <c r="N8">
-        <v>1.3757841043022221</v>
+        <v>3.478574820279245</v>
       </c>
       <c r="O8">
-        <v>7.7589382933536797</v>
+        <v>6.7901356388874854</v>
       </c>
       <c r="P8">
-        <v>0.40345541898009207</v>
+        <v>7.4930183242095429</v>
       </c>
       <c r="Q8">
-        <v>4.7584767589069633E-2</v>
+        <v>0.31332564660541801</v>
       </c>
       <c r="R8">
-        <v>-0.2134842109464172</v>
+        <v>9.3869183402983863E-2</v>
       </c>
       <c r="S8">
-        <v>-0.6033953172368367</v>
+        <v>8.80185665964619E-2</v>
       </c>
       <c r="T8">
-        <v>0.49987771924733759</v>
+        <v>9.795471717358728E-2</v>
       </c>
       <c r="U8">
-        <v>0.1060315969019598</v>
+        <v>0.34619370650774589</v>
       </c>
       <c r="V8">
-        <v>1.673550410889562</v>
+        <v>1.320585403894362E-2</v>
       </c>
       <c r="W8">
-        <v>0.63749261375775657</v>
+        <v>2.467115494568044</v>
       </c>
       <c r="X8">
-        <v>3.8460249726457452</v>
+        <v>7.8348088442860675E-2</v>
       </c>
       <c r="Y8">
-        <v>7.7233406113009592E-2</v>
+        <v>7.1362567446741139</v>
       </c>
       <c r="Z8">
-        <v>0.5151938548443058</v>
+        <v>1.0868034560384191E-2</v>
       </c>
       <c r="AA8">
-        <v>0.16901467681442189</v>
+        <v>0.34653873483723963</v>
       </c>
       <c r="AB8">
-        <v>0.10966425013681851</v>
+        <v>1.3653040403131639E-2</v>
       </c>
       <c r="AC8">
-        <v>1.562874710464401</v>
+        <v>1.2800798002215509E-2</v>
       </c>
       <c r="AD8">
-        <v>0.68347588136593651</v>
+        <v>2.4645899960100861</v>
       </c>
       <c r="AE8">
-        <v>1.0842839396733319</v>
+        <v>7.3966825963605043E-2</v>
       </c>
       <c r="AF8">
-        <v>3.016940242512371</v>
+        <v>7.541441123036563E-2</v>
       </c>
       <c r="AG8">
-        <v>1.6411561382101489</v>
+        <v>7.1206385570217137</v>
       </c>
       <c r="AH8">
-        <v>4.7419980508413087</v>
+        <v>0.33050291813422827</v>
       </c>
       <c r="AI8">
-        <v>1.167324241835244E-2</v>
+        <v>0.37237976718782928</v>
       </c>
       <c r="AJ8">
-        <v>2.0946810061014172</v>
+        <v>1.1594912410045699E-2</v>
       </c>
       <c r="AK8">
-        <v>3.799673387009889E-4</v>
+        <v>2.1118150135546121</v>
       </c>
       <c r="AL8">
-        <v>6.3866612842243653E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9">
-        <v>0.2</v>
-      </c>
-      <c r="C9">
-        <v>0.69279636931358912</v>
-      </c>
-      <c r="D9">
-        <v>200</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9">
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="G9">
-        <v>0.34535884722299648</v>
-      </c>
-      <c r="H9">
-        <v>2.6380127118500898</v>
-      </c>
-      <c r="I9">
-        <v>7.6384686046474402</v>
-      </c>
-      <c r="J9">
-        <v>1.3988045271165559</v>
-      </c>
-      <c r="K9">
-        <v>3.5391192874619309E-2</v>
-      </c>
-      <c r="L9">
-        <v>1.219142864960052</v>
-      </c>
-      <c r="M9">
-        <v>3.0982123070202912</v>
-      </c>
-      <c r="N9">
-        <v>1.7561716107364249</v>
-      </c>
-      <c r="O9">
-        <v>6.9153055215184533</v>
-      </c>
-      <c r="P9">
-        <v>0.31818340856829269</v>
-      </c>
-      <c r="Q9">
-        <v>9.5324519579774322E-2</v>
-      </c>
-      <c r="R9">
-        <v>-0.10751906536286369</v>
-      </c>
-      <c r="S9">
-        <v>-0.63421668711823598</v>
-      </c>
-      <c r="T9">
-        <v>0.47033846868434082</v>
-      </c>
-      <c r="U9">
-        <v>0.105408843215703</v>
-      </c>
-      <c r="V9">
-        <v>1.6744366510071489</v>
-      </c>
-      <c r="W9">
-        <v>0.65034879142230739</v>
-      </c>
-      <c r="X9">
-        <v>4.0920825541831869</v>
-      </c>
-      <c r="Y9">
-        <v>7.6175660171687892E-2</v>
-      </c>
-      <c r="Z9">
-        <v>0.5397305615482626</v>
-      </c>
-      <c r="AA9">
-        <v>0.19183085957544571</v>
-      </c>
-      <c r="AB9">
-        <v>3.6703926245200802E-2</v>
-      </c>
-      <c r="AC9">
-        <v>1.256748433369451</v>
-      </c>
-      <c r="AD9">
-        <v>0.23848791128824759</v>
-      </c>
-      <c r="AE9">
-        <v>1.1639161179779409</v>
-      </c>
-      <c r="AF9">
-        <v>2.269994369059201</v>
-      </c>
-      <c r="AG9">
-        <v>0.51382275832277569</v>
-      </c>
-      <c r="AH9">
-        <v>4.6453111524592527</v>
-      </c>
-      <c r="AI9">
-        <v>1.1600013572758781E-2</v>
-      </c>
-      <c r="AJ9">
-        <v>2.0814984821471558</v>
-      </c>
-      <c r="AK9">
-        <v>4.0341906886977178E-4</v>
-      </c>
-      <c r="AL9">
-        <v>6.7625318156218167E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10">
-        <v>0.2</v>
-      </c>
-      <c r="C10">
-        <v>0.69279636931358912</v>
-      </c>
-      <c r="D10">
-        <v>200</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10">
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="G10">
-        <v>0.31490932208129979</v>
-      </c>
-      <c r="H10">
-        <v>2.6145994148196059</v>
-      </c>
-      <c r="I10">
-        <v>8.3027056726653452</v>
-      </c>
-      <c r="J10">
-        <v>1.394589963710777</v>
-      </c>
-      <c r="K10">
-        <v>2.1111774223895461E-2</v>
-      </c>
-      <c r="L10">
-        <v>1.5599681623452351</v>
-      </c>
-      <c r="M10">
-        <v>3.1199074367590431</v>
-      </c>
-      <c r="N10">
-        <v>2.1166584595393649</v>
-      </c>
-      <c r="O10">
-        <v>9.1099651622674518</v>
-      </c>
-      <c r="P10">
-        <v>0.22520535146568141</v>
-      </c>
-      <c r="Q10">
-        <v>3.2953326751512232E-2</v>
-      </c>
-      <c r="R10">
-        <v>-0.35498334767917239</v>
-      </c>
-      <c r="S10">
-        <v>-0.63993973909184776</v>
-      </c>
-      <c r="T10">
-        <v>0.41726902511970348</v>
-      </c>
-      <c r="U10">
-        <v>0.10371059568665809</v>
-      </c>
-      <c r="V10">
-        <v>1.9007468188695591</v>
-      </c>
-      <c r="W10">
-        <v>0.63060610310570675</v>
-      </c>
-      <c r="X10">
-        <v>5.2648609880176274</v>
-      </c>
-      <c r="Y10">
-        <v>9.173368868287364E-2</v>
-      </c>
-      <c r="Z10">
-        <v>0.41589317712556229</v>
-      </c>
-      <c r="AA10">
-        <v>0.12159952879979111</v>
-      </c>
-      <c r="AB10">
-        <v>0.1234980301532775</v>
-      </c>
-      <c r="AC10">
-        <v>1.9031697292490291</v>
-      </c>
-      <c r="AD10">
-        <v>0.74574230047248413</v>
-      </c>
-      <c r="AE10">
-        <v>0.75531089621698899</v>
-      </c>
-      <c r="AF10">
-        <v>4.5823926065649356</v>
-      </c>
-      <c r="AG10">
-        <v>2.4657341470255698</v>
-      </c>
-      <c r="AH10">
-        <v>4.5275725557025162</v>
-      </c>
-      <c r="AI10">
-        <v>1.1646792685043931E-2</v>
-      </c>
-      <c r="AJ10">
-        <v>2.091910979654561</v>
-      </c>
-      <c r="AK10">
-        <v>2.0209552596591311E-4</v>
-      </c>
-      <c r="AL10">
-        <v>3.471975595468936E-2</v>
+        <v>0.35530048101343198</v>
+      </c>
+      <c r="AM8">
+        <v>3.9520538750224788E-4</v>
+      </c>
+      <c r="AN8">
+        <v>6.7104931583846908E-2</v>
+      </c>
+      <c r="AO8">
+        <v>3.2729963029788131E-2</v>
       </c>
     </row>
   </sheetData>

--- a/clockshift/sumrule_analysis_results.xlsx
+++ b/clockshift/sumrule_analysis_results.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU6"/>
+  <dimension ref="A1:BU8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1948,6 +1948,460 @@
         <v>1.960112051461479</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-09-12_E_e.dat</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>transfer</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>200</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Blackman</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0148</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.00055</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10818242.33717204</v>
+      </c>
+      <c r="J7" t="n">
+        <v>377</v>
+      </c>
+      <c r="K7" t="n">
+        <v>13</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.353251525585472</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.01823642281480822</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.384760825824527</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.04561305003519604</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>268.9189189189189</v>
+      </c>
+      <c r="R7" t="n">
+        <v>42.68013515262911</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.597685403414816</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.3098666670904903</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.01836981553431876</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.3473690933134114</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.176582100597987</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.3282364826248091</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.523951193911398</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7.689429199728545</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.2348580854810282</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.01013078014731138</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.3373026864360487</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.344974735785374</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.3298719555730663</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.3374450992921992</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.008089328022197521</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>2.650770589112001</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>2.70922255528005</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>2.581354759869761</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2.646708965697791</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.06443938461543329</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>7.862530888593243</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>8.071431991609899</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>7.621923052448456</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>7.846747444082977</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.232870309309199</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.01943038952938295</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.01991282363412602</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.01886497187300008</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.01939564278916637</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.000526360150116652</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>2.302253037201362</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>2.359176934236709</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>2.235269316893389</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>2.297922443227667</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.06207740544018735</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.3486887782037926</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.3563837980805823</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.3405055953707706</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.3487865224701245</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.008845137064875557</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.454080806710048</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>1.490033447924836</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1.411775459226118</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>1.451328557431822</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.03920150396585813</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>2.15540550673144</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>2.219596836482521</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>2.082332307800371</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>2.151459300582226</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0.07072926319807023</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>3.630071685653816</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0.09805103665383658</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>3.636955628042732</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>3.726880589713171</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>3.531141239380172</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-09-18_F_e.dat</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>transfer</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>200</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Blackman</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.009900000000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.00014</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12127808.20404177</v>
+      </c>
+      <c r="J8" t="n">
+        <v>377</v>
+      </c>
+      <c r="K8" t="n">
+        <v>13</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7663633636591822</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.01823642281480822</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.709852237829378</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.0406877335719948</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>213.9784946236559</v>
+      </c>
+      <c r="R8" t="n">
+        <v>136.2503920113797</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6.091112189062183</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.8170872608259792</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.003384662392636809</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.03696083600119154</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.7362064422805231</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.820471923218616</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.7731672782817146</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.9423445902312773</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.4698072715794814</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.01653871829921932</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.351763617729176</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.3669817794881653</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.3376683775226238</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.3521845749111452</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.01373476543499438</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.9557550836038384</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.9891662673434409</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.9236846561540357</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.9549304444654596</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.03260395484408993</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>2.711787530709346</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>2.873109813708927</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>2.572900857329363</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>2.715749851987404</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.1440443472497804</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.003631281234409604</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.003779725136137824</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.003485725796355147</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.003630970176366508</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.0001448439314680616</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.7898508346236919</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.8221388795426557</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.7581913840172039</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.7897833767657624</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.0315054717437733</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.1653459088236783</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.1715149702597857</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.1578411112170259</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.1651470676996971</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.006795520846426978</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.6490102675788103</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.6755408578834345</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.6229962442106776</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.6489548759671027</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.02588764734473556</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.9231716820827645</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.9786291849319789</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0.8705223432078169</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.9227996727485688</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0.05271334586028383</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>1.447899259725191</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0.05775856968577506</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>1.448022845318822</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>1.507215900929803</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>1.38998231496444</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
